--- a/dataset-pln.xlsx
+++ b/dataset-pln.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>numPal</t>
   </si>
@@ -52,10 +52,13 @@
     <t>Pergunta</t>
   </si>
   <si>
-    <t>tamParagraf</t>
+    <t>tamMédioParagraf</t>
   </si>
   <si>
     <t>tamTitulo</t>
+  </si>
+  <si>
+    <t>refs</t>
   </si>
 </sst>
 </file>
@@ -413,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +465,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>345</v>
       </c>
@@ -471,31 +477,31 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>0.3362</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="E2">
-        <v>41</v>
+        <v>0.1159</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>0.142</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>0.1594</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>0.0406</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>0.0464</v>
       </c>
       <c r="J2">
-        <v>49</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>0.0116</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -506,8 +512,11 @@
       <c r="N2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>532</v>
       </c>
@@ -515,31 +524,31 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>223</v>
+        <v>0.3684</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>0.0752</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>0.1034</v>
       </c>
       <c r="F3">
-        <v>79</v>
+        <v>0.1673</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>0.1729</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>0.0489</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>0.0169</v>
       </c>
       <c r="J3">
-        <v>84</v>
+        <v>0.1222</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>0.0132</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -550,8 +559,11 @@
       <c r="N3">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>913</v>
       </c>
@@ -559,31 +571,31 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>322</v>
+        <v>0.3395</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>0.0537</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>0.1544</v>
       </c>
       <c r="F4">
-        <v>109</v>
+        <v>0.1249</v>
       </c>
       <c r="G4">
-        <v>118</v>
+        <v>0.1796</v>
       </c>
       <c r="H4">
-        <v>29</v>
+        <v>0.0372</v>
       </c>
       <c r="I4">
-        <v>53</v>
+        <v>0.0482</v>
       </c>
       <c r="J4">
-        <v>132</v>
+        <v>0.0832</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>0.0175</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -594,8 +606,11 @@
       <c r="N4">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>322</v>
       </c>
@@ -603,31 +618,31 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>0.3758</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>0.0528</v>
       </c>
       <c r="E5">
-        <v>43</v>
+        <v>0.1273</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>0.059</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>0.1584</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>0.0435</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>0.0373</v>
       </c>
       <c r="J5">
-        <v>58</v>
+        <v>0.1335</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>0.0124</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -638,8 +653,11 @@
       <c r="N5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>557</v>
       </c>
@@ -647,31 +665,31 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>227</v>
+        <v>0.4022</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>0.0772</v>
       </c>
       <c r="E6">
-        <v>55</v>
+        <v>0.079</v>
       </c>
       <c r="F6">
-        <v>86</v>
+        <v>0.1598</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>0.1544</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>0.0395</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>0.0305</v>
       </c>
       <c r="J6">
-        <v>107</v>
+        <v>0.1472</v>
       </c>
       <c r="K6">
-        <v>14</v>
+        <v>0.018</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -682,8 +700,11 @@
       <c r="N6">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>400</v>
       </c>
@@ -691,31 +712,31 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>116</v>
+        <v>0.2825</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>0.065</v>
       </c>
       <c r="E7">
-        <v>53</v>
+        <v>0.1525</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>0.0575</v>
       </c>
       <c r="G7">
-        <v>51</v>
+        <v>0.165</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>0.0275</v>
       </c>
       <c r="I7">
-        <v>21</v>
+        <v>0.0475</v>
       </c>
       <c r="J7">
-        <v>58</v>
+        <v>0.1225</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>0.04</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -726,8 +747,11 @@
       <c r="N7">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>400</v>
       </c>
@@ -735,28 +759,28 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>142</v>
+        <v>0.36</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>0.065</v>
       </c>
       <c r="E8">
-        <v>56</v>
+        <v>0.1275</v>
       </c>
       <c r="F8">
-        <v>21</v>
+        <v>0.05</v>
       </c>
       <c r="G8">
-        <v>51</v>
+        <v>0.16</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>0.0375</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>0.03</v>
       </c>
       <c r="J8">
-        <v>65</v>
+        <v>0.125</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -770,8 +794,11 @@
       <c r="N8">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>345</v>
       </c>
@@ -779,31 +806,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>103</v>
+        <v>0.2957</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>0.0406</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>0.1623</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>0.0348</v>
       </c>
       <c r="G9">
-        <v>51</v>
+        <v>0.1681</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>0.0406</v>
       </c>
       <c r="I9">
-        <v>16</v>
+        <v>0.0377</v>
       </c>
       <c r="J9">
-        <v>56</v>
+        <v>0.1072</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>0.0203</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -814,8 +841,11 @@
       <c r="N9">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>577</v>
       </c>
@@ -823,28 +853,28 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>185</v>
+        <v>0.3016</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>0.0503</v>
       </c>
       <c r="E10">
-        <v>86</v>
+        <v>0.1404</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>0.0225</v>
       </c>
       <c r="G10">
-        <v>93</v>
+        <v>0.2132</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>0.0312</v>
       </c>
       <c r="I10">
-        <v>35</v>
+        <v>0.0416</v>
       </c>
       <c r="J10">
-        <v>95</v>
+        <v>0.1075</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -858,8 +888,11 @@
       <c r="N10">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>1129</v>
       </c>
@@ -867,31 +900,31 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>382</v>
+        <v>0.3198</v>
       </c>
       <c r="D11">
-        <v>70</v>
+        <v>0.0664</v>
       </c>
       <c r="E11">
-        <v>140</v>
+        <v>0.1027</v>
       </c>
       <c r="F11">
-        <v>123</v>
+        <v>0.1302</v>
       </c>
       <c r="G11">
-        <v>149</v>
+        <v>0.1807</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>0.0248</v>
       </c>
       <c r="I11">
-        <v>72</v>
+        <v>0.0576</v>
       </c>
       <c r="J11">
-        <v>184</v>
+        <v>0.116</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>0.0071</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -902,8 +935,11 @@
       <c r="N11">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>439</v>
       </c>
@@ -911,31 +947,31 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>140</v>
+        <v>0.3303</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>0.0615</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <v>0.1071</v>
       </c>
       <c r="F12">
-        <v>46</v>
+        <v>0.1162</v>
       </c>
       <c r="G12">
-        <v>68</v>
+        <v>0.2073</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>0.0296</v>
       </c>
       <c r="I12">
-        <v>26</v>
+        <v>0.0547</v>
       </c>
       <c r="J12">
-        <v>71</v>
+        <v>0.1071</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>0.0023</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -946,8 +982,11 @@
       <c r="N12">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>311</v>
       </c>
@@ -955,28 +994,28 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>85</v>
+        <v>0.2765</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>0.0804</v>
       </c>
       <c r="E13">
-        <v>48</v>
+        <v>0.1254</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>0.0354</v>
       </c>
       <c r="G13">
-        <v>43</v>
+        <v>0.1865</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>0.0289</v>
       </c>
       <c r="I13">
-        <v>15</v>
+        <v>0.045</v>
       </c>
       <c r="J13">
-        <v>44</v>
+        <v>0.1029</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -990,8 +1029,11 @@
       <c r="N13">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>300</v>
       </c>
@@ -999,31 +1041,31 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>103</v>
+        <v>0.3333</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>0.1433</v>
       </c>
       <c r="E14">
-        <v>31</v>
+        <v>0.0867</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>0.0167</v>
       </c>
       <c r="G14">
-        <v>39</v>
+        <v>0.17</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>0.0433</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>0.03</v>
       </c>
       <c r="J14">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="K14">
-        <v>9</v>
+        <v>0.04</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1034,8 +1076,11 @@
       <c r="N14">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>516</v>
       </c>
@@ -1043,31 +1088,31 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>187</v>
+        <v>0.3469</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>0.0562</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>0.1105</v>
       </c>
       <c r="F15">
-        <v>33</v>
+        <v>0.064</v>
       </c>
       <c r="G15">
-        <v>76</v>
+        <v>0.188</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>0.0329</v>
       </c>
       <c r="I15">
-        <v>22</v>
+        <v>0.0446</v>
       </c>
       <c r="J15">
-        <v>90</v>
+        <v>0.124</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>0.0058</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1078,8 +1123,11 @@
       <c r="N15">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>345</v>
       </c>
@@ -1087,31 +1135,31 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>0.2812</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>0.0725</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>0.1275</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>0.0406</v>
       </c>
       <c r="G16">
-        <v>45</v>
+        <v>0.1768</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>0.0522</v>
       </c>
       <c r="I16">
-        <v>22</v>
+        <v>0.0638</v>
       </c>
       <c r="J16">
-        <v>52</v>
+        <v>0.1014</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0.0029</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1122,8 +1170,11 @@
       <c r="N16">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>449</v>
       </c>
@@ -1131,31 +1182,31 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>139</v>
+        <v>0.3007</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>0.0601</v>
       </c>
       <c r="E17">
-        <v>64</v>
+        <v>0.1359</v>
       </c>
       <c r="F17">
-        <v>14</v>
+        <v>0.0312</v>
       </c>
       <c r="G17">
-        <v>62</v>
+        <v>0.196</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>0.0423</v>
       </c>
       <c r="I17">
-        <v>20</v>
+        <v>0.0379</v>
       </c>
       <c r="J17">
-        <v>67</v>
+        <v>0.098</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1166,8 +1217,11 @@
       <c r="N17">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>341</v>
       </c>
@@ -1175,31 +1229,31 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>102</v>
+        <v>0.305</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>0.1202</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>0.0293</v>
       </c>
       <c r="G18">
-        <v>42</v>
+        <v>0.1642</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>0.0381</v>
       </c>
       <c r="I18">
-        <v>18</v>
+        <v>0.0411</v>
       </c>
       <c r="J18">
-        <v>53</v>
+        <v>0.1378</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>0.0147</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1210,8 +1264,11 @@
       <c r="N18">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>799</v>
       </c>
@@ -1219,31 +1276,31 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>198</v>
+        <v>0.2215</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>0.0626</v>
       </c>
       <c r="E19">
-        <v>145</v>
+        <v>0.1464</v>
       </c>
       <c r="F19">
-        <v>42</v>
+        <v>0.0388</v>
       </c>
       <c r="G19">
-        <v>101</v>
+        <v>0.1464</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>0.0426</v>
       </c>
       <c r="I19">
-        <v>77</v>
+        <v>0.0851</v>
       </c>
       <c r="J19">
-        <v>86</v>
+        <v>0.0776</v>
       </c>
       <c r="K19">
-        <v>8</v>
+        <v>0.01</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1254,8 +1311,11 @@
       <c r="N19">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>609</v>
       </c>
@@ -1263,31 +1323,31 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>219</v>
+        <v>0.3547</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>0.0673</v>
       </c>
       <c r="E20">
-        <v>75</v>
+        <v>0.1133</v>
       </c>
       <c r="F20">
-        <v>86</v>
+        <v>0.1314</v>
       </c>
       <c r="G20">
-        <v>74</v>
+        <v>0.1658</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>0.0411</v>
       </c>
       <c r="I20">
-        <v>39</v>
+        <v>0.0525</v>
       </c>
       <c r="J20">
-        <v>91</v>
+        <v>0.1034</v>
       </c>
       <c r="K20">
-        <v>9</v>
+        <v>0.0181</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1298,8 +1358,11 @@
       <c r="N20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>714</v>
       </c>
@@ -1307,31 +1370,31 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>264</v>
+        <v>0.3529</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>0.056</v>
       </c>
       <c r="E21">
-        <v>78</v>
+        <v>0.1008</v>
       </c>
       <c r="F21">
-        <v>134</v>
+        <v>0.1961</v>
       </c>
       <c r="G21">
-        <v>86</v>
+        <v>0.1541</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>0.028</v>
       </c>
       <c r="I21">
-        <v>44</v>
+        <v>0.0518</v>
       </c>
       <c r="J21">
-        <v>118</v>
+        <v>0.1317</v>
       </c>
       <c r="K21">
-        <v>24</v>
+        <v>0.0364</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1342,8 +1405,11 @@
       <c r="N21">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>612</v>
       </c>
@@ -1351,31 +1417,31 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>224</v>
+        <v>0.3415</v>
       </c>
       <c r="D22">
-        <v>63</v>
+        <v>0.098</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>0.0997</v>
       </c>
       <c r="F22">
-        <v>39</v>
+        <v>0.0556</v>
       </c>
       <c r="G22">
-        <v>71</v>
+        <v>0.1356</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>0.0359</v>
       </c>
       <c r="I22">
-        <v>33</v>
+        <v>0.0523</v>
       </c>
       <c r="J22">
-        <v>96</v>
+        <v>0.134</v>
       </c>
       <c r="K22">
-        <v>7</v>
+        <v>0.0131</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1386,8 +1452,11 @@
       <c r="N22">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>375</v>
       </c>
@@ -1395,31 +1464,31 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>118</v>
+        <v>0.2773</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>0.104</v>
       </c>
       <c r="E23">
-        <v>73</v>
+        <v>0.168</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>0.048</v>
       </c>
       <c r="G23">
-        <v>42</v>
+        <v>0.1387</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>0.0453</v>
       </c>
       <c r="I23">
-        <v>20</v>
+        <v>0.0507</v>
       </c>
       <c r="J23">
-        <v>44</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="K23">
-        <v>7</v>
+        <v>0.0267</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1430,8 +1499,11 @@
       <c r="N23">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>236</v>
       </c>
@@ -1439,31 +1511,31 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>84</v>
+        <v>0.3305</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>0.1186</v>
       </c>
       <c r="E24">
-        <v>32</v>
+        <v>0.1229</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>0.0339</v>
       </c>
       <c r="G24">
-        <v>35</v>
+        <v>0.2373</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>0.0169</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>0.0212</v>
       </c>
       <c r="J24">
-        <v>35</v>
+        <v>0.089</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0.0127</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -1474,8 +1546,11 @@
       <c r="N24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>438</v>
       </c>
@@ -1483,31 +1558,31 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>134</v>
+        <v>0.3014</v>
       </c>
       <c r="D25">
-        <v>38</v>
+        <v>0.0868</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>0.1142</v>
       </c>
       <c r="F25">
-        <v>19</v>
+        <v>0.0205</v>
       </c>
       <c r="G25">
-        <v>57</v>
+        <v>0.1712</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>0.0411</v>
       </c>
       <c r="I25">
-        <v>26</v>
+        <v>0.0525</v>
       </c>
       <c r="J25">
-        <v>73</v>
+        <v>0.1096</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>0.0068</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -1518,8 +1593,11 @@
       <c r="N25">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>766</v>
       </c>
@@ -1527,31 +1605,31 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>251</v>
+        <v>0.3133</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>0.0483</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>0.1253</v>
       </c>
       <c r="F26">
-        <v>92</v>
+        <v>0.1292</v>
       </c>
       <c r="G26">
-        <v>114</v>
+        <v>0.1932</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>0.0366</v>
       </c>
       <c r="I26">
-        <v>52</v>
+        <v>0.0601</v>
       </c>
       <c r="J26">
-        <v>115</v>
+        <v>0.0979</v>
       </c>
       <c r="K26">
-        <v>7</v>
+        <v>0.0065</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1562,8 +1640,11 @@
       <c r="N26">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>381</v>
       </c>
@@ -1571,31 +1652,31 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>114</v>
+        <v>0.2966</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>0.0472</v>
       </c>
       <c r="E27">
-        <v>51</v>
+        <v>0.1155</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>0.0184</v>
       </c>
       <c r="G27">
-        <v>55</v>
+        <v>0.2047</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>0.0184</v>
       </c>
       <c r="I27">
-        <v>23</v>
+        <v>0.0577</v>
       </c>
       <c r="J27">
-        <v>69</v>
+        <v>0.1417</v>
       </c>
       <c r="K27">
-        <v>8</v>
+        <v>0.0262</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -1606,8 +1687,11 @@
       <c r="N27">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>371</v>
       </c>
@@ -1615,31 +1699,31 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>141</v>
+        <v>0.3801</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>0.1078</v>
       </c>
       <c r="E28">
-        <v>42</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="F28">
-        <v>34</v>
+        <v>0.097</v>
       </c>
       <c r="G28">
-        <v>52</v>
+        <v>0.1941</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>0.0216</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>0.0216</v>
       </c>
       <c r="J28">
-        <v>53</v>
+        <v>0.1105</v>
       </c>
       <c r="K28">
-        <v>7</v>
+        <v>0.0162</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1650,8 +1734,11 @@
       <c r="N28">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>1757</v>
       </c>
@@ -1659,31 +1746,31 @@
         <v>46</v>
       </c>
       <c r="C29">
-        <v>530</v>
+        <v>0.2977</v>
       </c>
       <c r="D29">
-        <v>104</v>
+        <v>0.0592</v>
       </c>
       <c r="E29">
-        <v>287</v>
+        <v>0.1582</v>
       </c>
       <c r="F29">
-        <v>133</v>
+        <v>0.0803</v>
       </c>
       <c r="G29">
-        <v>201</v>
+        <v>0.1372</v>
       </c>
       <c r="H29">
-        <v>69</v>
+        <v>0.0427</v>
       </c>
       <c r="I29">
-        <v>107</v>
+        <v>0.0535</v>
       </c>
       <c r="J29">
-        <v>269</v>
+        <v>0.1138</v>
       </c>
       <c r="K29">
-        <v>8</v>
+        <v>0.0057</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -1694,8 +1781,11 @@
       <c r="N29">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>330</v>
       </c>
@@ -1703,31 +1793,31 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>102</v>
+        <v>0.3</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>0.1</v>
       </c>
       <c r="E30">
-        <v>48</v>
+        <v>0.1424</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>0.0182</v>
       </c>
       <c r="G30">
-        <v>37</v>
+        <v>0.1273</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>0.0364</v>
       </c>
       <c r="I30">
-        <v>13</v>
+        <v>0.0333</v>
       </c>
       <c r="J30">
-        <v>52</v>
+        <v>0.1394</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1738,8 +1828,11 @@
       <c r="N30">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>339</v>
       </c>
@@ -1747,31 +1840,31 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>99</v>
+        <v>0.292</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>0.0767</v>
       </c>
       <c r="E31">
-        <v>59</v>
+        <v>0.1534</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>0.0383</v>
       </c>
       <c r="G31">
-        <v>45</v>
+        <v>0.1563</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>0.0324</v>
       </c>
       <c r="I31">
-        <v>27</v>
+        <v>0.059</v>
       </c>
       <c r="J31">
-        <v>42</v>
+        <v>0.1032</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>0.0118</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -1782,8 +1875,11 @@
       <c r="N31">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>292</v>
       </c>
@@ -1791,31 +1887,31 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>103</v>
+        <v>0.3699</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="E32">
-        <v>35</v>
+        <v>0.0856</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="G32">
-        <v>38</v>
+        <v>0.1781</v>
       </c>
       <c r="H32">
-        <v>14</v>
+        <v>0.0582</v>
       </c>
       <c r="I32">
-        <v>18</v>
+        <v>0.0582</v>
       </c>
       <c r="J32">
-        <v>45</v>
+        <v>0.1096</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>0.0068</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -1826,8 +1922,11 @@
       <c r="N32">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>355</v>
       </c>
@@ -1835,28 +1934,28 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>107</v>
+        <v>0.2901</v>
       </c>
       <c r="D33">
-        <v>33</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="E33">
-        <v>54</v>
+        <v>0.1493</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>0.0141</v>
       </c>
       <c r="G33">
-        <v>46</v>
+        <v>0.1662</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>0.0451</v>
       </c>
       <c r="I33">
-        <v>21</v>
+        <v>0.0592</v>
       </c>
       <c r="J33">
-        <v>56</v>
+        <v>0.107</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1870,8 +1969,11 @@
       <c r="N33">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>203</v>
       </c>
@@ -1879,31 +1981,31 @@
         <v>8</v>
       </c>
       <c r="C34">
-        <v>73</v>
+        <v>0.3695</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>0.0837</v>
       </c>
       <c r="E34">
-        <v>24</v>
+        <v>0.1133</v>
       </c>
       <c r="F34">
-        <v>11</v>
+        <v>0.0493</v>
       </c>
       <c r="G34">
-        <v>25</v>
+        <v>0.1773</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>0.0443</v>
       </c>
       <c r="I34">
-        <v>14</v>
+        <v>0.0788</v>
       </c>
       <c r="J34">
-        <v>25</v>
+        <v>0.1034</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -1914,8 +2016,11 @@
       <c r="N34">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>1052</v>
       </c>
@@ -1923,31 +2028,31 @@
         <v>23</v>
       </c>
       <c r="C35">
-        <v>271</v>
+        <v>0.2557</v>
       </c>
       <c r="D35">
-        <v>63</v>
+        <v>0.0646</v>
       </c>
       <c r="E35">
-        <v>183</v>
+        <v>0.1492</v>
       </c>
       <c r="F35">
-        <v>28</v>
+        <v>0.0266</v>
       </c>
       <c r="G35">
-        <v>150</v>
+        <v>0.1597</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>0.0371</v>
       </c>
       <c r="I35">
-        <v>83</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="J35">
-        <v>144</v>
+        <v>0.1055</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>0.0086</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -1958,8 +2063,11 @@
       <c r="N35">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>619</v>
       </c>
@@ -1967,31 +2075,31 @@
         <v>8</v>
       </c>
       <c r="C36">
-        <v>182</v>
+        <v>0.294</v>
       </c>
       <c r="D36">
-        <v>54</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="E36">
-        <v>79</v>
+        <v>0.1066</v>
       </c>
       <c r="F36">
-        <v>26</v>
+        <v>0.0468</v>
       </c>
       <c r="G36">
-        <v>89</v>
+        <v>0.1842</v>
       </c>
       <c r="H36">
-        <v>18</v>
+        <v>0.0307</v>
       </c>
       <c r="I36">
-        <v>38</v>
+        <v>0.0517</v>
       </c>
       <c r="J36">
-        <v>115</v>
+        <v>0.1325</v>
       </c>
       <c r="K36">
-        <v>7</v>
+        <v>0.0145</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2002,8 +2110,11 @@
       <c r="N36">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>363</v>
       </c>
@@ -2011,31 +2122,31 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>116</v>
+        <v>0.3058</v>
       </c>
       <c r="D37">
-        <v>38</v>
+        <v>0.0992</v>
       </c>
       <c r="E37">
-        <v>44</v>
+        <v>0.1047</v>
       </c>
       <c r="F37">
-        <v>13</v>
+        <v>0.0386</v>
       </c>
       <c r="G37">
-        <v>48</v>
+        <v>0.1736</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>0.0303</v>
       </c>
       <c r="I37">
-        <v>18</v>
+        <v>0.0523</v>
       </c>
       <c r="J37">
-        <v>58</v>
+        <v>0.1185</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0.0083</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2046,8 +2157,11 @@
       <c r="N37">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>435</v>
       </c>
@@ -2055,31 +2169,31 @@
         <v>8</v>
       </c>
       <c r="C38">
-        <v>169</v>
+        <v>0.3954</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>0.0897</v>
       </c>
       <c r="E38">
-        <v>45</v>
+        <v>0.0897</v>
       </c>
       <c r="F38">
-        <v>42</v>
+        <v>0.0989</v>
       </c>
       <c r="G38">
-        <v>62</v>
+        <v>0.1839</v>
       </c>
       <c r="H38">
-        <v>14</v>
+        <v>0.0322</v>
       </c>
       <c r="I38">
-        <v>11</v>
+        <v>0.023</v>
       </c>
       <c r="J38">
-        <v>72</v>
+        <v>0.131</v>
       </c>
       <c r="K38">
-        <v>8</v>
+        <v>0.0207</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2090,8 +2204,11 @@
       <c r="N38">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>487</v>
       </c>
@@ -2099,31 +2216,31 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>145</v>
+        <v>0.306</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>0.0678</v>
       </c>
       <c r="E39">
-        <v>65</v>
+        <v>0.1006</v>
       </c>
       <c r="F39">
-        <v>13</v>
+        <v>0.0246</v>
       </c>
       <c r="G39">
-        <v>83</v>
+        <v>0.1807</v>
       </c>
       <c r="H39">
-        <v>14</v>
+        <v>0.037</v>
       </c>
       <c r="I39">
-        <v>30</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="J39">
-        <v>81</v>
+        <v>0.1396</v>
       </c>
       <c r="K39">
-        <v>7</v>
+        <v>0.0185</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2134,8 +2251,11 @@
       <c r="N39">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>426</v>
       </c>
@@ -2143,31 +2263,31 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>158</v>
+        <v>0.3803</v>
       </c>
       <c r="D40">
-        <v>27</v>
+        <v>0.0634</v>
       </c>
       <c r="E40">
-        <v>47</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="F40">
-        <v>36</v>
+        <v>0.1056</v>
       </c>
       <c r="G40">
-        <v>75</v>
+        <v>0.1831</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>0.0446</v>
       </c>
       <c r="I40">
-        <v>18</v>
+        <v>0.0399</v>
       </c>
       <c r="J40">
-        <v>69</v>
+        <v>0.1432</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>0.0047</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2178,8 +2298,11 @@
       <c r="N40">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>678</v>
       </c>
@@ -2187,31 +2310,31 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>227</v>
+        <v>0.3378</v>
       </c>
       <c r="D41">
-        <v>61</v>
+        <v>0.0973</v>
       </c>
       <c r="E41">
-        <v>89</v>
+        <v>0.1121</v>
       </c>
       <c r="F41">
-        <v>18</v>
+        <v>0.0221</v>
       </c>
       <c r="G41">
-        <v>58</v>
+        <v>0.1018</v>
       </c>
       <c r="H41">
-        <v>29</v>
+        <v>0.0442</v>
       </c>
       <c r="I41">
-        <v>40</v>
+        <v>0.0546</v>
       </c>
       <c r="J41">
-        <v>132</v>
+        <v>0.1711</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>0.0044</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -2222,8 +2345,11 @@
       <c r="N41">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>584</v>
       </c>
@@ -2231,31 +2357,31 @@
         <v>14</v>
       </c>
       <c r="C42">
-        <v>248</v>
+        <v>0.4092</v>
       </c>
       <c r="D42">
-        <v>36</v>
+        <v>0.0548</v>
       </c>
       <c r="E42">
-        <v>64</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="F42">
-        <v>101</v>
+        <v>0.1781</v>
       </c>
       <c r="G42">
-        <v>73</v>
+        <v>0.1747</v>
       </c>
       <c r="H42">
-        <v>17</v>
+        <v>0.0342</v>
       </c>
       <c r="I42">
-        <v>17</v>
+        <v>0.0223</v>
       </c>
       <c r="J42">
-        <v>87</v>
+        <v>0.1182</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>0.0103</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -2266,8 +2392,11 @@
       <c r="N42">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>529</v>
       </c>
@@ -2275,31 +2404,31 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>169</v>
+        <v>0.3138</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="E43">
-        <v>76</v>
+        <v>0.1096</v>
       </c>
       <c r="F43">
-        <v>92</v>
+        <v>0.1815</v>
       </c>
       <c r="G43">
-        <v>57</v>
+        <v>0.138</v>
       </c>
       <c r="H43">
-        <v>12</v>
+        <v>0.0265</v>
       </c>
       <c r="I43">
-        <v>36</v>
+        <v>0.0624</v>
       </c>
       <c r="J43">
-        <v>82</v>
+        <v>0.1323</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>0.0208</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2310,8 +2439,11 @@
       <c r="N43">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>271</v>
       </c>
@@ -2319,31 +2451,31 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>94</v>
+        <v>0.3358</v>
       </c>
       <c r="D44">
-        <v>21</v>
+        <v>0.0738</v>
       </c>
       <c r="E44">
-        <v>38</v>
+        <v>0.1328</v>
       </c>
       <c r="F44">
-        <v>18</v>
+        <v>0.0701</v>
       </c>
       <c r="G44">
-        <v>37</v>
+        <v>0.1845</v>
       </c>
       <c r="H44">
-        <v>9</v>
+        <v>0.0406</v>
       </c>
       <c r="I44">
-        <v>7</v>
+        <v>0.0258</v>
       </c>
       <c r="J44">
-        <v>44</v>
+        <v>0.107</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>0.0111</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2354,8 +2486,11 @@
       <c r="N44">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>691</v>
       </c>
@@ -2363,31 +2498,31 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>201</v>
+        <v>0.2836</v>
       </c>
       <c r="D45">
-        <v>57</v>
+        <v>0.0912</v>
       </c>
       <c r="E45">
-        <v>94</v>
+        <v>0.1071</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>0.0101</v>
       </c>
       <c r="G45">
-        <v>85</v>
+        <v>0.1737</v>
       </c>
       <c r="H45">
-        <v>27</v>
+        <v>0.0434</v>
       </c>
       <c r="I45">
-        <v>45</v>
+        <v>0.0535</v>
       </c>
       <c r="J45">
-        <v>103</v>
+        <v>0.1056</v>
       </c>
       <c r="K45">
-        <v>10</v>
+        <v>0.013</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -2398,8 +2533,11 @@
       <c r="N45">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>1079</v>
       </c>
@@ -2407,31 +2545,31 @@
         <v>13</v>
       </c>
       <c r="C46">
-        <v>370</v>
+        <v>0.3225</v>
       </c>
       <c r="D46">
-        <v>67</v>
+        <v>0.0593</v>
       </c>
       <c r="E46">
-        <v>124</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="F46">
-        <v>72</v>
+        <v>0.0677</v>
       </c>
       <c r="G46">
-        <v>129</v>
+        <v>0.165</v>
       </c>
       <c r="H46">
-        <v>20</v>
+        <v>0.0287</v>
       </c>
       <c r="I46">
-        <v>52</v>
+        <v>0.0426</v>
       </c>
       <c r="J46">
-        <v>181</v>
+        <v>0.1437</v>
       </c>
       <c r="K46">
-        <v>41</v>
+        <v>0.0482</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -2442,8 +2580,11 @@
       <c r="N46">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>335</v>
       </c>
@@ -2451,31 +2592,31 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>128</v>
+        <v>0.3403</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>0.1045</v>
       </c>
       <c r="E47">
-        <v>32</v>
+        <v>0.0776</v>
       </c>
       <c r="F47">
-        <v>27</v>
+        <v>0.0776</v>
       </c>
       <c r="G47">
-        <v>40</v>
+        <v>0.1731</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>0.0269</v>
       </c>
       <c r="I47">
-        <v>14</v>
+        <v>0.0328</v>
       </c>
       <c r="J47">
-        <v>69</v>
+        <v>0.1463</v>
       </c>
       <c r="K47">
-        <v>9</v>
+        <v>0.0239</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2486,8 +2627,11 @@
       <c r="N47">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>1044</v>
       </c>
@@ -2495,31 +2639,31 @@
         <v>14</v>
       </c>
       <c r="C48">
-        <v>323</v>
+        <v>0.2912</v>
       </c>
       <c r="D48">
-        <v>88</v>
+        <v>0.0987</v>
       </c>
       <c r="E48">
-        <v>133</v>
+        <v>0.114</v>
       </c>
       <c r="F48">
-        <v>34</v>
+        <v>0.0335</v>
       </c>
       <c r="G48">
-        <v>147</v>
+        <v>0.1695</v>
       </c>
       <c r="H48">
-        <v>45</v>
+        <v>0.046</v>
       </c>
       <c r="I48">
-        <v>54</v>
+        <v>0.0479</v>
       </c>
       <c r="J48">
-        <v>162</v>
+        <v>0.1207</v>
       </c>
       <c r="K48">
-        <v>7</v>
+        <v>0.0067</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -2530,8 +2674,11 @@
       <c r="N48">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>583</v>
       </c>
@@ -2539,31 +2686,31 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>178</v>
+        <v>0.295</v>
       </c>
       <c r="D49">
-        <v>53</v>
+        <v>0.0926</v>
       </c>
       <c r="E49">
-        <v>87</v>
+        <v>0.1338</v>
       </c>
       <c r="F49">
-        <v>15</v>
+        <v>0.024</v>
       </c>
       <c r="G49">
-        <v>66</v>
+        <v>0.1389</v>
       </c>
       <c r="H49">
-        <v>24</v>
+        <v>0.0429</v>
       </c>
       <c r="I49">
-        <v>29</v>
+        <v>0.0429</v>
       </c>
       <c r="J49">
-        <v>99</v>
+        <v>0.1407</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>0.0034</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -2574,8 +2721,11 @@
       <c r="N49">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>511</v>
       </c>
@@ -2583,31 +2733,31 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <v>144</v>
+        <v>0.2916</v>
       </c>
       <c r="D50">
-        <v>40</v>
+        <v>0.0646</v>
       </c>
       <c r="E50">
-        <v>81</v>
+        <v>0.1429</v>
       </c>
       <c r="F50">
-        <v>40</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="G50">
-        <v>78</v>
+        <v>0.1722</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>0.0274</v>
       </c>
       <c r="I50">
-        <v>27</v>
+        <v>0.0548</v>
       </c>
       <c r="J50">
-        <v>71</v>
+        <v>0.092</v>
       </c>
       <c r="K50">
-        <v>7</v>
+        <v>0.0157</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -2618,8 +2768,11 @@
       <c r="N50">
         <v>37</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>668</v>
       </c>
@@ -2627,31 +2780,31 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>172</v>
+        <v>0.253</v>
       </c>
       <c r="D51">
-        <v>34</v>
+        <v>0.0539</v>
       </c>
       <c r="E51">
-        <v>128</v>
+        <v>0.1662</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>0.021</v>
       </c>
       <c r="G51">
-        <v>74</v>
+        <v>0.1377</v>
       </c>
       <c r="H51">
-        <v>19</v>
+        <v>0.0419</v>
       </c>
       <c r="I51">
-        <v>54</v>
+        <v>0.0868</v>
       </c>
       <c r="J51">
-        <v>91</v>
+        <v>0.0883</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -2662,8 +2815,11 @@
       <c r="N51">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>1031</v>
       </c>
@@ -2671,31 +2827,31 @@
         <v>35</v>
       </c>
       <c r="C52">
-        <v>358</v>
+        <v>0.3395</v>
       </c>
       <c r="D52">
-        <v>59</v>
+        <v>0.0553</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>0.1038</v>
       </c>
       <c r="F52">
-        <v>110</v>
+        <v>0.1125</v>
       </c>
       <c r="G52">
-        <v>137</v>
+        <v>0.1804</v>
       </c>
       <c r="H52">
-        <v>23</v>
+        <v>0.0272</v>
       </c>
       <c r="I52">
-        <v>57</v>
+        <v>0.0495</v>
       </c>
       <c r="J52">
-        <v>165</v>
+        <v>0.1261</v>
       </c>
       <c r="K52">
-        <v>33</v>
+        <v>0.0291</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -2706,8 +2862,11 @@
       <c r="N52">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>631</v>
       </c>
@@ -2715,31 +2874,31 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>222</v>
+        <v>0.3439</v>
       </c>
       <c r="D53">
-        <v>61</v>
+        <v>0.0919</v>
       </c>
       <c r="E53">
-        <v>59</v>
+        <v>0.0872</v>
       </c>
       <c r="F53">
-        <v>25</v>
+        <v>0.0475</v>
       </c>
       <c r="G53">
-        <v>78</v>
+        <v>0.1553</v>
       </c>
       <c r="H53">
-        <v>31</v>
+        <v>0.0539</v>
       </c>
       <c r="I53">
-        <v>30</v>
+        <v>0.0491</v>
       </c>
       <c r="J53">
-        <v>111</v>
+        <v>0.1474</v>
       </c>
       <c r="K53">
-        <v>10</v>
+        <v>0.0222</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -2750,8 +2909,11 @@
       <c r="N53">
         <v>78</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>348</v>
       </c>
@@ -2759,31 +2921,31 @@
         <v>11</v>
       </c>
       <c r="C54">
-        <v>127</v>
+        <v>0.3534</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>0.0718</v>
       </c>
       <c r="E54">
-        <v>41</v>
+        <v>0.1006</v>
       </c>
       <c r="F54">
-        <v>27</v>
+        <v>0.0805</v>
       </c>
       <c r="G54">
-        <v>51</v>
+        <v>0.2011</v>
       </c>
       <c r="H54">
-        <v>13</v>
+        <v>0.0374</v>
       </c>
       <c r="I54">
-        <v>17</v>
+        <v>0.0345</v>
       </c>
       <c r="J54">
-        <v>53</v>
+        <v>0.1092</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>0.0115</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -2794,8 +2956,11 @@
       <c r="N54">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>678</v>
       </c>
@@ -2803,31 +2968,31 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>174</v>
+        <v>0.2625</v>
       </c>
       <c r="D55">
-        <v>57</v>
+        <v>0.0929</v>
       </c>
       <c r="E55">
-        <v>103</v>
+        <v>0.1313</v>
       </c>
       <c r="F55">
-        <v>13</v>
+        <v>0.0192</v>
       </c>
       <c r="G55">
-        <v>89</v>
+        <v>0.1681</v>
       </c>
       <c r="H55">
-        <v>26</v>
+        <v>0.0383</v>
       </c>
       <c r="I55">
-        <v>48</v>
+        <v>0.0649</v>
       </c>
       <c r="J55">
-        <v>99</v>
+        <v>0.0988</v>
       </c>
       <c r="K55">
-        <v>5</v>
+        <v>0.0029</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -2838,8 +3003,11 @@
       <c r="N55">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="O55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>342</v>
       </c>
@@ -2847,31 +3015,31 @@
         <v>8</v>
       </c>
       <c r="C56">
-        <v>116</v>
+        <v>0.3363</v>
       </c>
       <c r="D56">
-        <v>36</v>
+        <v>0.1111</v>
       </c>
       <c r="E56">
-        <v>37</v>
+        <v>0.0819</v>
       </c>
       <c r="F56">
-        <v>26</v>
+        <v>0.076</v>
       </c>
       <c r="G56">
-        <v>45</v>
+        <v>0.1988</v>
       </c>
       <c r="H56">
-        <v>11</v>
+        <v>0.038</v>
       </c>
       <c r="I56">
-        <v>22</v>
+        <v>0.0614</v>
       </c>
       <c r="J56">
-        <v>49</v>
+        <v>0.0906</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -2882,8 +3050,11 @@
       <c r="N56">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>855</v>
       </c>
@@ -2891,31 +3062,31 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>347</v>
+        <v>0.3977</v>
       </c>
       <c r="D57">
-        <v>62</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="E57">
-        <v>88</v>
+        <v>0.0959</v>
       </c>
       <c r="F57">
-        <v>123</v>
+        <v>0.1368</v>
       </c>
       <c r="G57">
-        <v>116</v>
+        <v>0.2035</v>
       </c>
       <c r="H57">
-        <v>38</v>
+        <v>0.0444</v>
       </c>
       <c r="I57">
-        <v>18</v>
+        <v>0.0152</v>
       </c>
       <c r="J57">
-        <v>136</v>
+        <v>0.1076</v>
       </c>
       <c r="K57">
-        <v>10</v>
+        <v>0.0129</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -2926,8 +3097,11 @@
       <c r="N57">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>768</v>
       </c>
@@ -2935,31 +3109,31 @@
         <v>19</v>
       </c>
       <c r="C58">
-        <v>284</v>
+        <v>0.3529</v>
       </c>
       <c r="D58">
-        <v>69</v>
+        <v>0.1042</v>
       </c>
       <c r="E58">
-        <v>105</v>
+        <v>0.099</v>
       </c>
       <c r="F58">
-        <v>17</v>
+        <v>0.0391</v>
       </c>
       <c r="G58">
-        <v>87</v>
+        <v>0.1419</v>
       </c>
       <c r="H58">
-        <v>15</v>
+        <v>0.026</v>
       </c>
       <c r="I58">
-        <v>26</v>
+        <v>0.0312</v>
       </c>
       <c r="J58">
-        <v>128</v>
+        <v>0.1445</v>
       </c>
       <c r="K58">
-        <v>5</v>
+        <v>0.0065</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -2970,8 +3144,11 @@
       <c r="N58">
         <v>28</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>913</v>
       </c>
@@ -2979,31 +3156,31 @@
         <v>16</v>
       </c>
       <c r="C59">
-        <v>358</v>
+        <v>0.3713</v>
       </c>
       <c r="D59">
-        <v>67</v>
+        <v>0.0767</v>
       </c>
       <c r="E59">
-        <v>90</v>
+        <v>0.0756</v>
       </c>
       <c r="F59">
-        <v>115</v>
+        <v>0.1314</v>
       </c>
       <c r="G59">
-        <v>133</v>
+        <v>0.2245</v>
       </c>
       <c r="H59">
-        <v>42</v>
+        <v>0.0471</v>
       </c>
       <c r="I59">
-        <v>36</v>
+        <v>0.034</v>
       </c>
       <c r="J59">
-        <v>151</v>
+        <v>0.115</v>
       </c>
       <c r="K59">
-        <v>14</v>
+        <v>0.0164</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -3014,8 +3191,11 @@
       <c r="N59">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>515</v>
       </c>
@@ -3023,31 +3203,31 @@
         <v>15</v>
       </c>
       <c r="C60">
-        <v>170</v>
+        <v>0.301</v>
       </c>
       <c r="D60">
-        <v>37</v>
+        <v>0.0699</v>
       </c>
       <c r="E60">
-        <v>58</v>
+        <v>0.1029</v>
       </c>
       <c r="F60">
-        <v>57</v>
+        <v>0.1243</v>
       </c>
       <c r="G60">
-        <v>74</v>
+        <v>0.1845</v>
       </c>
       <c r="H60">
-        <v>18</v>
+        <v>0.0388</v>
       </c>
       <c r="I60">
-        <v>34</v>
+        <v>0.066</v>
       </c>
       <c r="J60">
-        <v>83</v>
+        <v>0.1165</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -3058,8 +3238,11 @@
       <c r="N60">
         <v>44</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>327</v>
       </c>
@@ -3067,31 +3250,31 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>113</v>
+        <v>0.3089</v>
       </c>
       <c r="D61">
-        <v>28</v>
+        <v>0.1223</v>
       </c>
       <c r="E61">
-        <v>44</v>
+        <v>0.1223</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>0.0245</v>
       </c>
       <c r="G61">
-        <v>44</v>
+        <v>0.1713</v>
       </c>
       <c r="H61">
-        <v>16</v>
+        <v>0.055</v>
       </c>
       <c r="I61">
-        <v>21</v>
+        <v>0.0398</v>
       </c>
       <c r="J61">
-        <v>42</v>
+        <v>0.0948</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0.0031</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -3102,8 +3285,11 @@
       <c r="N61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>389</v>
       </c>
@@ -3111,28 +3297,28 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>122</v>
+        <v>0.2956</v>
       </c>
       <c r="D62">
-        <v>24</v>
+        <v>0.0823</v>
       </c>
       <c r="E62">
-        <v>64</v>
+        <v>0.144</v>
       </c>
       <c r="F62">
-        <v>19</v>
+        <v>0.0437</v>
       </c>
       <c r="G62">
-        <v>46</v>
+        <v>0.126</v>
       </c>
       <c r="H62">
-        <v>14</v>
+        <v>0.0386</v>
       </c>
       <c r="I62">
-        <v>34</v>
+        <v>0.0823</v>
       </c>
       <c r="J62">
-        <v>55</v>
+        <v>0.1208</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3146,8 +3332,11 @@
       <c r="N62">
         <v>27</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>1702</v>
       </c>
@@ -3155,31 +3344,31 @@
         <v>24</v>
       </c>
       <c r="C63">
-        <v>494</v>
+        <v>0.2867</v>
       </c>
       <c r="D63">
-        <v>116</v>
+        <v>0.064</v>
       </c>
       <c r="E63">
-        <v>229</v>
+        <v>0.1099</v>
       </c>
       <c r="F63">
-        <v>120</v>
+        <v>0.0682</v>
       </c>
       <c r="G63">
-        <v>201</v>
+        <v>0.1586</v>
       </c>
       <c r="H63">
-        <v>76</v>
+        <v>0.0476</v>
       </c>
       <c r="I63">
-        <v>127</v>
+        <v>0.077</v>
       </c>
       <c r="J63">
-        <v>266</v>
+        <v>0.1157</v>
       </c>
       <c r="K63">
-        <v>52</v>
+        <v>0.0353</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -3190,8 +3379,11 @@
       <c r="N63">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>1153</v>
       </c>
@@ -3199,31 +3391,31 @@
         <v>17</v>
       </c>
       <c r="C64">
-        <v>293</v>
+        <v>0.2663</v>
       </c>
       <c r="D64">
-        <v>86</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="E64">
-        <v>189</v>
+        <v>0.1292</v>
       </c>
       <c r="F64">
-        <v>30</v>
+        <v>0.0234</v>
       </c>
       <c r="G64">
-        <v>175</v>
+        <v>0.1674</v>
       </c>
       <c r="H64">
-        <v>49</v>
+        <v>0.0503</v>
       </c>
       <c r="I64">
-        <v>63</v>
+        <v>0.0555</v>
       </c>
       <c r="J64">
-        <v>148</v>
+        <v>0.09710000000000001</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>0.0026</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -3234,8 +3426,11 @@
       <c r="N64">
         <v>29</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>1124</v>
       </c>
@@ -3243,31 +3438,31 @@
         <v>15</v>
       </c>
       <c r="C65">
-        <v>364</v>
+        <v>0.3158</v>
       </c>
       <c r="D65">
-        <v>66</v>
+        <v>0.0649</v>
       </c>
       <c r="E65">
-        <v>164</v>
+        <v>0.1326</v>
       </c>
       <c r="F65">
-        <v>121</v>
+        <v>0.1112</v>
       </c>
       <c r="G65">
-        <v>144</v>
+        <v>0.1664</v>
       </c>
       <c r="H65">
-        <v>50</v>
+        <v>0.0472</v>
       </c>
       <c r="I65">
-        <v>46</v>
+        <v>0.04</v>
       </c>
       <c r="J65">
-        <v>177</v>
+        <v>0.1094</v>
       </c>
       <c r="K65">
-        <v>24</v>
+        <v>0.0231</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3278,8 +3473,11 @@
       <c r="N65">
         <v>46</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="O65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>758</v>
       </c>
@@ -3287,31 +3485,31 @@
         <v>13</v>
       </c>
       <c r="C66">
-        <v>229</v>
+        <v>0.2889</v>
       </c>
       <c r="D66">
-        <v>69</v>
+        <v>0.0989</v>
       </c>
       <c r="E66">
-        <v>96</v>
+        <v>0.1082</v>
       </c>
       <c r="F66">
-        <v>26</v>
+        <v>0.0356</v>
       </c>
       <c r="G66">
-        <v>110</v>
+        <v>0.2058</v>
       </c>
       <c r="H66">
-        <v>21</v>
+        <v>0.0343</v>
       </c>
       <c r="I66">
-        <v>44</v>
+        <v>0.0422</v>
       </c>
       <c r="J66">
-        <v>113</v>
+        <v>0.1003</v>
       </c>
       <c r="K66">
-        <v>11</v>
+        <v>0.0132</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -3322,8 +3520,11 @@
       <c r="N66">
         <v>57</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>947</v>
       </c>
@@ -3331,31 +3532,31 @@
         <v>18</v>
       </c>
       <c r="C67">
-        <v>297</v>
+        <v>0.32</v>
       </c>
       <c r="D67">
-        <v>61</v>
+        <v>0.0655</v>
       </c>
       <c r="E67">
-        <v>119</v>
+        <v>0.1014</v>
       </c>
       <c r="F67">
-        <v>61</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="G67">
-        <v>125</v>
+        <v>0.1637</v>
       </c>
       <c r="H67">
-        <v>34</v>
+        <v>0.038</v>
       </c>
       <c r="I67">
-        <v>66</v>
+        <v>0.0623</v>
       </c>
       <c r="J67">
-        <v>176</v>
+        <v>0.1478</v>
       </c>
       <c r="K67">
-        <v>11</v>
+        <v>0.0148</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -3366,8 +3567,11 @@
       <c r="N67">
         <v>42</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>392</v>
       </c>
@@ -3375,31 +3579,31 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <v>110</v>
+        <v>0.3061</v>
       </c>
       <c r="D68">
-        <v>29</v>
+        <v>0.0612</v>
       </c>
       <c r="E68">
-        <v>65</v>
+        <v>0.1378</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>0.0204</v>
       </c>
       <c r="G68">
-        <v>45</v>
+        <v>0.1505</v>
       </c>
       <c r="H68">
-        <v>20</v>
+        <v>0.0561</v>
       </c>
       <c r="I68">
-        <v>26</v>
+        <v>0.0663</v>
       </c>
       <c r="J68">
-        <v>49</v>
+        <v>0.09950000000000001</v>
       </c>
       <c r="K68">
-        <v>12</v>
+        <v>0.0255</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3410,8 +3614,11 @@
       <c r="N68">
         <v>53</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>443</v>
       </c>
@@ -3419,31 +3626,31 @@
         <v>11</v>
       </c>
       <c r="C69">
-        <v>144</v>
+        <v>0.3002</v>
       </c>
       <c r="D69">
-        <v>34</v>
+        <v>0.0835</v>
       </c>
       <c r="E69">
-        <v>61</v>
+        <v>0.1151</v>
       </c>
       <c r="F69">
-        <v>11</v>
+        <v>0.0248</v>
       </c>
       <c r="G69">
-        <v>69</v>
+        <v>0.2032</v>
       </c>
       <c r="H69">
-        <v>16</v>
+        <v>0.0384</v>
       </c>
       <c r="I69">
-        <v>27</v>
+        <v>0.0609</v>
       </c>
       <c r="J69">
-        <v>63</v>
+        <v>0.09030000000000001</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0.0023</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -3454,8 +3661,11 @@
       <c r="N69">
         <v>40</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="O69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>706</v>
       </c>
@@ -3463,31 +3673,31 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>230</v>
+        <v>0.3272</v>
       </c>
       <c r="D70">
-        <v>52</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="E70">
-        <v>103</v>
+        <v>0.1176</v>
       </c>
       <c r="F70">
-        <v>48</v>
+        <v>0.0708</v>
       </c>
       <c r="G70">
-        <v>101</v>
+        <v>0.1898</v>
       </c>
       <c r="H70">
-        <v>19</v>
+        <v>0.0326</v>
       </c>
       <c r="I70">
-        <v>43</v>
+        <v>0.0496</v>
       </c>
       <c r="J70">
-        <v>115</v>
+        <v>0.1218</v>
       </c>
       <c r="K70">
-        <v>8</v>
+        <v>0.0142</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -3498,8 +3708,11 @@
       <c r="N70">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="O70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>1324</v>
       </c>
@@ -3507,31 +3720,31 @@
         <v>28</v>
       </c>
       <c r="C71">
-        <v>366</v>
+        <v>0.2636</v>
       </c>
       <c r="D71">
-        <v>67</v>
+        <v>0.0574</v>
       </c>
       <c r="E71">
-        <v>204</v>
+        <v>0.1344</v>
       </c>
       <c r="F71">
-        <v>52</v>
+        <v>0.04</v>
       </c>
       <c r="G71">
-        <v>163</v>
+        <v>0.1465</v>
       </c>
       <c r="H71">
-        <v>48</v>
+        <v>0.0438</v>
       </c>
       <c r="I71">
-        <v>102</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J71">
-        <v>203</v>
+        <v>0.1246</v>
       </c>
       <c r="K71">
-        <v>26</v>
+        <v>0.0211</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -3542,8 +3755,11 @@
       <c r="N71">
         <v>52</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="O71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>810</v>
       </c>
@@ -3551,31 +3767,31 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>263</v>
+        <v>0.3049</v>
       </c>
       <c r="D72">
-        <v>60</v>
+        <v>0.0667</v>
       </c>
       <c r="E72">
-        <v>98</v>
+        <v>0.1111</v>
       </c>
       <c r="F72">
-        <v>66</v>
+        <v>0.079</v>
       </c>
       <c r="G72">
-        <v>110</v>
+        <v>0.1815</v>
       </c>
       <c r="H72">
-        <v>29</v>
+        <v>0.0395</v>
       </c>
       <c r="I72">
-        <v>49</v>
+        <v>0.0605</v>
       </c>
       <c r="J72">
-        <v>138</v>
+        <v>0.1247</v>
       </c>
       <c r="K72">
-        <v>6</v>
+        <v>0.0074</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -3586,8 +3802,11 @@
       <c r="N72">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>851</v>
       </c>
@@ -3595,31 +3814,31 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>285</v>
+        <v>0.342</v>
       </c>
       <c r="D73">
-        <v>66</v>
+        <v>0.0646</v>
       </c>
       <c r="E73">
-        <v>94</v>
+        <v>0.0834</v>
       </c>
       <c r="F73">
-        <v>61</v>
+        <v>0.0623</v>
       </c>
       <c r="G73">
-        <v>116</v>
+        <v>0.1692</v>
       </c>
       <c r="H73">
-        <v>36</v>
+        <v>0.0458</v>
       </c>
       <c r="I73">
-        <v>26</v>
+        <v>0.0329</v>
       </c>
       <c r="J73">
-        <v>148</v>
+        <v>0.1504</v>
       </c>
       <c r="K73">
-        <v>26</v>
+        <v>0.04</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -3630,8 +3849,11 @@
       <c r="N73">
         <v>68</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>816</v>
       </c>
@@ -3639,31 +3861,31 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>222</v>
+        <v>0.2794</v>
       </c>
       <c r="D74">
-        <v>45</v>
+        <v>0.0551</v>
       </c>
       <c r="E74">
-        <v>146</v>
+        <v>0.1373</v>
       </c>
       <c r="F74">
-        <v>16</v>
+        <v>0.0135</v>
       </c>
       <c r="G74">
-        <v>104</v>
+        <v>0.1642</v>
       </c>
       <c r="H74">
-        <v>36</v>
+        <v>0.0515</v>
       </c>
       <c r="I74">
-        <v>77</v>
+        <v>0.0858</v>
       </c>
       <c r="J74">
-        <v>90</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="K74">
-        <v>9</v>
+        <v>0.011</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -3674,8 +3896,11 @@
       <c r="N74">
         <v>45</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="O74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>472</v>
       </c>
@@ -3683,31 +3908,31 @@
         <v>7</v>
       </c>
       <c r="C75">
-        <v>133</v>
+        <v>0.2924</v>
       </c>
       <c r="D75">
-        <v>31</v>
+        <v>0.0678</v>
       </c>
       <c r="E75">
-        <v>86</v>
+        <v>0.1568</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>0.0106</v>
       </c>
       <c r="G75">
-        <v>66</v>
+        <v>0.161</v>
       </c>
       <c r="H75">
-        <v>15</v>
+        <v>0.036</v>
       </c>
       <c r="I75">
-        <v>32</v>
+        <v>0.0614</v>
       </c>
       <c r="J75">
-        <v>59</v>
+        <v>0.1038</v>
       </c>
       <c r="K75">
-        <v>5</v>
+        <v>0.0106</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -3718,8 +3943,11 @@
       <c r="N75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="O75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>697</v>
       </c>
@@ -3727,31 +3955,31 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>234</v>
+        <v>0.33</v>
       </c>
       <c r="D76">
-        <v>71</v>
+        <v>0.1033</v>
       </c>
       <c r="E76">
-        <v>82</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="F76">
-        <v>19</v>
+        <v>0.0287</v>
       </c>
       <c r="G76">
-        <v>87</v>
+        <v>0.1506</v>
       </c>
       <c r="H76">
-        <v>23</v>
+        <v>0.033</v>
       </c>
       <c r="I76">
-        <v>50</v>
+        <v>0.0603</v>
       </c>
       <c r="J76">
-        <v>114</v>
+        <v>0.1463</v>
       </c>
       <c r="K76">
-        <v>6</v>
+        <v>0.0115</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -3762,8 +3990,11 @@
       <c r="N76">
         <v>54</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="O76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>367</v>
       </c>
@@ -3771,31 +4002,31 @@
         <v>7</v>
       </c>
       <c r="C77">
-        <v>98</v>
+        <v>0.2943</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>0.0599</v>
       </c>
       <c r="E77">
-        <v>66</v>
+        <v>0.1335</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>0.0109</v>
       </c>
       <c r="G77">
-        <v>44</v>
+        <v>0.1662</v>
       </c>
       <c r="H77">
-        <v>14</v>
+        <v>0.0409</v>
       </c>
       <c r="I77">
-        <v>31</v>
+        <v>0.0708</v>
       </c>
       <c r="J77">
-        <v>46</v>
+        <v>0.09810000000000001</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>0.0109</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -3806,8 +4037,11 @@
       <c r="N77">
         <v>33</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="O77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>406</v>
       </c>
@@ -3815,31 +4049,31 @@
         <v>7</v>
       </c>
       <c r="C78">
-        <v>120</v>
+        <v>0.3005</v>
       </c>
       <c r="D78">
-        <v>26</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E78">
-        <v>74</v>
+        <v>0.1576</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>0.0222</v>
       </c>
       <c r="G78">
-        <v>51</v>
+        <v>0.1404</v>
       </c>
       <c r="H78">
-        <v>24</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I78">
-        <v>32</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="J78">
-        <v>49</v>
+        <v>0.101</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0.0025</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -3850,8 +4084,11 @@
       <c r="N78">
         <v>36</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>613</v>
       </c>
@@ -3859,31 +4096,31 @@
         <v>14</v>
       </c>
       <c r="C79">
-        <v>188</v>
+        <v>0.3002</v>
       </c>
       <c r="D79">
-        <v>44</v>
+        <v>0.0538</v>
       </c>
       <c r="E79">
-        <v>90</v>
+        <v>0.1338</v>
       </c>
       <c r="F79">
-        <v>34</v>
+        <v>0.0538</v>
       </c>
       <c r="G79">
-        <v>83</v>
+        <v>0.1631</v>
       </c>
       <c r="H79">
-        <v>16</v>
+        <v>0.0326</v>
       </c>
       <c r="I79">
-        <v>38</v>
+        <v>0.0538</v>
       </c>
       <c r="J79">
-        <v>86</v>
+        <v>0.1028</v>
       </c>
       <c r="K79">
-        <v>8</v>
+        <v>0.0147</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -3894,8 +4131,11 @@
       <c r="N79">
         <v>56</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="O79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>973</v>
       </c>
@@ -3903,31 +4143,31 @@
         <v>17</v>
       </c>
       <c r="C80">
-        <v>326</v>
+        <v>0.3094</v>
       </c>
       <c r="D80">
-        <v>47</v>
+        <v>0.0524</v>
       </c>
       <c r="E80">
-        <v>126</v>
+        <v>0.1161</v>
       </c>
       <c r="F80">
-        <v>85</v>
+        <v>0.0956</v>
       </c>
       <c r="G80">
-        <v>124</v>
+        <v>0.1778</v>
       </c>
       <c r="H80">
-        <v>27</v>
+        <v>0.0298</v>
       </c>
       <c r="I80">
-        <v>81</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="J80">
-        <v>165</v>
+        <v>0.1254</v>
       </c>
       <c r="K80">
-        <v>30</v>
+        <v>0.0257</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -3938,8 +4178,11 @@
       <c r="N80">
         <v>45</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="O80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>737</v>
       </c>
@@ -3947,31 +4190,31 @@
         <v>15</v>
       </c>
       <c r="C81">
-        <v>243</v>
+        <v>0.3229</v>
       </c>
       <c r="D81">
-        <v>44</v>
+        <v>0.0583</v>
       </c>
       <c r="E81">
-        <v>96</v>
+        <v>0.1194</v>
       </c>
       <c r="F81">
-        <v>65</v>
+        <v>0.0936</v>
       </c>
       <c r="G81">
-        <v>89</v>
+        <v>0.1642</v>
       </c>
       <c r="H81">
-        <v>26</v>
+        <v>0.0434</v>
       </c>
       <c r="I81">
-        <v>48</v>
+        <v>0.0543</v>
       </c>
       <c r="J81">
-        <v>110</v>
+        <v>0.1004</v>
       </c>
       <c r="K81">
-        <v>13</v>
+        <v>0.0163</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -3982,8 +4225,11 @@
       <c r="N81">
         <v>69</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="O81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>576</v>
       </c>
@@ -3991,31 +4237,31 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>189</v>
+        <v>0.3229</v>
       </c>
       <c r="D82">
-        <v>47</v>
+        <v>0.0885</v>
       </c>
       <c r="E82">
-        <v>78</v>
+        <v>0.1372</v>
       </c>
       <c r="F82">
-        <v>21</v>
+        <v>0.0417</v>
       </c>
       <c r="G82">
-        <v>60</v>
+        <v>0.1319</v>
       </c>
       <c r="H82">
-        <v>23</v>
+        <v>0.0469</v>
       </c>
       <c r="I82">
-        <v>29</v>
+        <v>0.0469</v>
       </c>
       <c r="J82">
-        <v>97</v>
+        <v>0.1354</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0.0017</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -4026,8 +4272,11 @@
       <c r="N82">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="O82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>1228</v>
       </c>
@@ -4035,31 +4284,31 @@
         <v>20</v>
       </c>
       <c r="C83">
-        <v>482</v>
+        <v>0.3779</v>
       </c>
       <c r="D83">
-        <v>77</v>
+        <v>0.0586</v>
       </c>
       <c r="E83">
-        <v>129</v>
+        <v>0.1083</v>
       </c>
       <c r="F83">
-        <v>206</v>
+        <v>0.1726</v>
       </c>
       <c r="G83">
-        <v>147</v>
+        <v>0.1979</v>
       </c>
       <c r="H83">
-        <v>66</v>
+        <v>0.0521</v>
       </c>
       <c r="I83">
-        <v>42</v>
+        <v>0.0309</v>
       </c>
       <c r="J83">
-        <v>218</v>
+        <v>0.1107</v>
       </c>
       <c r="K83">
-        <v>10</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -4070,8 +4319,11 @@
       <c r="N83">
         <v>32</v>
       </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>1441</v>
       </c>
@@ -4079,31 +4331,31 @@
         <v>24</v>
       </c>
       <c r="C84">
-        <v>477</v>
+        <v>0.3046</v>
       </c>
       <c r="D84">
-        <v>104</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E84">
-        <v>198</v>
+        <v>0.1083</v>
       </c>
       <c r="F84">
-        <v>100</v>
+        <v>0.0604</v>
       </c>
       <c r="G84">
-        <v>175</v>
+        <v>0.1506</v>
       </c>
       <c r="H84">
-        <v>57</v>
+        <v>0.0423</v>
       </c>
       <c r="I84">
-        <v>102</v>
+        <v>0.0618</v>
       </c>
       <c r="J84">
-        <v>221</v>
+        <v>0.1145</v>
       </c>
       <c r="K84">
-        <v>37</v>
+        <v>0.0271</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -4114,8 +4366,11 @@
       <c r="N84">
         <v>27</v>
       </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>1452</v>
       </c>
@@ -4123,31 +4378,31 @@
         <v>25</v>
       </c>
       <c r="C85">
-        <v>591</v>
+        <v>0.3815</v>
       </c>
       <c r="D85">
-        <v>71</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="E85">
-        <v>186</v>
+        <v>0.095</v>
       </c>
       <c r="F85">
-        <v>269</v>
+        <v>0.1935</v>
       </c>
       <c r="G85">
-        <v>177</v>
+        <v>0.1742</v>
       </c>
       <c r="H85">
-        <v>51</v>
+        <v>0.0372</v>
       </c>
       <c r="I85">
-        <v>77</v>
+        <v>0.0461</v>
       </c>
       <c r="J85">
-        <v>207</v>
+        <v>0.0999</v>
       </c>
       <c r="K85">
-        <v>33</v>
+        <v>0.0234</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -4158,8 +4413,11 @@
       <c r="N85">
         <v>51</v>
       </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>1252</v>
       </c>
@@ -4167,31 +4425,31 @@
         <v>14</v>
       </c>
       <c r="C86">
-        <v>331</v>
+        <v>0.2564</v>
       </c>
       <c r="D86">
-        <v>122</v>
+        <v>0.1062</v>
       </c>
       <c r="E86">
-        <v>205</v>
+        <v>0.1294</v>
       </c>
       <c r="F86">
-        <v>56</v>
+        <v>0.0463</v>
       </c>
       <c r="G86">
-        <v>158</v>
+        <v>0.1733</v>
       </c>
       <c r="H86">
-        <v>37</v>
+        <v>0.0312</v>
       </c>
       <c r="I86">
-        <v>102</v>
+        <v>0.0775</v>
       </c>
       <c r="J86">
-        <v>167</v>
+        <v>0.0895</v>
       </c>
       <c r="K86">
-        <v>9</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -4202,8 +4460,11 @@
       <c r="N86">
         <v>36</v>
       </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="O86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>1249</v>
       </c>
@@ -4211,31 +4472,31 @@
         <v>20</v>
       </c>
       <c r="C87">
-        <v>392</v>
+        <v>0.3195</v>
       </c>
       <c r="D87">
-        <v>78</v>
+        <v>0.0689</v>
       </c>
       <c r="E87">
-        <v>168</v>
+        <v>0.1065</v>
       </c>
       <c r="F87">
-        <v>228</v>
+        <v>0.1729</v>
       </c>
       <c r="G87">
-        <v>177</v>
+        <v>0.1569</v>
       </c>
       <c r="H87">
-        <v>34</v>
+        <v>0.0344</v>
       </c>
       <c r="I87">
-        <v>61</v>
+        <v>0.0464</v>
       </c>
       <c r="J87">
-        <v>195</v>
+        <v>0.1233</v>
       </c>
       <c r="K87">
-        <v>33</v>
+        <v>0.0296</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -4246,8 +4507,11 @@
       <c r="N87">
         <v>46</v>
       </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>1309</v>
       </c>
@@ -4255,31 +4519,31 @@
         <v>20</v>
       </c>
       <c r="C88">
-        <v>416</v>
+        <v>0.3163</v>
       </c>
       <c r="D88">
-        <v>71</v>
+        <v>0.0504</v>
       </c>
       <c r="E88">
-        <v>172</v>
+        <v>0.1138</v>
       </c>
       <c r="F88">
-        <v>146</v>
+        <v>0.1215</v>
       </c>
       <c r="G88">
-        <v>176</v>
+        <v>0.1749</v>
       </c>
       <c r="H88">
-        <v>59</v>
+        <v>0.0474</v>
       </c>
       <c r="I88">
-        <v>79</v>
+        <v>0.0581</v>
       </c>
       <c r="J88">
-        <v>222</v>
+        <v>0.1253</v>
       </c>
       <c r="K88">
-        <v>29</v>
+        <v>0.0229</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -4290,8 +4554,11 @@
       <c r="N88">
         <v>42</v>
       </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>533</v>
       </c>
@@ -4299,31 +4566,31 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>172</v>
+        <v>0.3265</v>
       </c>
       <c r="D89">
-        <v>39</v>
+        <v>0.0638</v>
       </c>
       <c r="E89">
-        <v>65</v>
+        <v>0.1069</v>
       </c>
       <c r="F89">
-        <v>11</v>
+        <v>0.0113</v>
       </c>
       <c r="G89">
-        <v>82</v>
+        <v>0.2045</v>
       </c>
       <c r="H89">
-        <v>19</v>
+        <v>0.0394</v>
       </c>
       <c r="I89">
-        <v>21</v>
+        <v>0.0394</v>
       </c>
       <c r="J89">
-        <v>95</v>
+        <v>0.1351</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>0.0056</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -4334,8 +4601,11 @@
       <c r="N89">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="O89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>1171</v>
       </c>
@@ -4343,31 +4613,31 @@
         <v>19</v>
       </c>
       <c r="C90">
-        <v>329</v>
+        <v>0.2886</v>
       </c>
       <c r="D90">
-        <v>125</v>
+        <v>0.1008</v>
       </c>
       <c r="E90">
-        <v>158</v>
+        <v>0.1161</v>
       </c>
       <c r="F90">
-        <v>30</v>
+        <v>0.0248</v>
       </c>
       <c r="G90">
-        <v>170</v>
+        <v>0.1623</v>
       </c>
       <c r="H90">
-        <v>56</v>
+        <v>0.0504</v>
       </c>
       <c r="I90">
-        <v>71</v>
+        <v>0.0581</v>
       </c>
       <c r="J90">
-        <v>168</v>
+        <v>0.1204</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>0.0034</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -4378,8 +4648,11 @@
       <c r="N90">
         <v>66</v>
       </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="O90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>651</v>
       </c>
@@ -4387,31 +4660,31 @@
         <v>22</v>
       </c>
       <c r="C91">
-        <v>172</v>
+        <v>0.2627</v>
       </c>
       <c r="D91">
-        <v>32</v>
+        <v>0.0415</v>
       </c>
       <c r="E91">
-        <v>128</v>
+        <v>0.1736</v>
       </c>
       <c r="F91">
-        <v>23</v>
+        <v>0.02</v>
       </c>
       <c r="G91">
-        <v>96</v>
+        <v>0.1782</v>
       </c>
       <c r="H91">
-        <v>16</v>
+        <v>0.0399</v>
       </c>
       <c r="I91">
-        <v>50</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="J91">
-        <v>71</v>
+        <v>0.063</v>
       </c>
       <c r="K91">
-        <v>3</v>
+        <v>0.0046</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -4422,8 +4695,11 @@
       <c r="N91">
         <v>43</v>
       </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="O91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>1341</v>
       </c>
@@ -4431,31 +4707,31 @@
         <v>15</v>
       </c>
       <c r="C92">
-        <v>431</v>
+        <v>0.3169</v>
       </c>
       <c r="D92">
-        <v>104</v>
+        <v>0.0738</v>
       </c>
       <c r="E92">
-        <v>153</v>
+        <v>0.0969</v>
       </c>
       <c r="F92">
-        <v>92</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="G92">
-        <v>177</v>
+        <v>0.176</v>
       </c>
       <c r="H92">
-        <v>24</v>
+        <v>0.0239</v>
       </c>
       <c r="I92">
-        <v>81</v>
+        <v>0.0522</v>
       </c>
       <c r="J92">
-        <v>256</v>
+        <v>0.1521</v>
       </c>
       <c r="K92">
-        <v>31</v>
+        <v>0.0239</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -4466,8 +4742,11 @@
       <c r="N92">
         <v>42</v>
       </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="O92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>731</v>
       </c>
@@ -4475,31 +4754,31 @@
         <v>18</v>
       </c>
       <c r="C93">
-        <v>262</v>
+        <v>0.342</v>
       </c>
       <c r="D93">
-        <v>33</v>
+        <v>0.052</v>
       </c>
       <c r="E93">
-        <v>95</v>
+        <v>0.1067</v>
       </c>
       <c r="F93">
-        <v>99</v>
+        <v>0.13</v>
       </c>
       <c r="G93">
-        <v>79</v>
+        <v>0.1669</v>
       </c>
       <c r="H93">
-        <v>20</v>
+        <v>0.0315</v>
       </c>
       <c r="I93">
-        <v>49</v>
+        <v>0.0698</v>
       </c>
       <c r="J93">
-        <v>104</v>
+        <v>0.1012</v>
       </c>
       <c r="K93">
-        <v>12</v>
+        <v>0.0164</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -4510,8 +4789,11 @@
       <c r="N93">
         <v>78</v>
       </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>1200</v>
       </c>
@@ -4519,31 +4801,31 @@
         <v>18</v>
       </c>
       <c r="C94">
-        <v>425</v>
+        <v>0.3317</v>
       </c>
       <c r="D94">
-        <v>65</v>
+        <v>0.0508</v>
       </c>
       <c r="E94">
-        <v>181</v>
+        <v>0.1392</v>
       </c>
       <c r="F94">
-        <v>77</v>
+        <v>0.0658</v>
       </c>
       <c r="G94">
-        <v>164</v>
+        <v>0.1742</v>
       </c>
       <c r="H94">
-        <v>38</v>
+        <v>0.0333</v>
       </c>
       <c r="I94">
-        <v>61</v>
+        <v>0.0375</v>
       </c>
       <c r="J94">
-        <v>174</v>
+        <v>0.1108</v>
       </c>
       <c r="K94">
-        <v>15</v>
+        <v>0.0133</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -4554,8 +4836,11 @@
       <c r="N94">
         <v>60</v>
       </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>687</v>
       </c>
@@ -4563,31 +4848,31 @@
         <v>15</v>
       </c>
       <c r="C95">
-        <v>232</v>
+        <v>0.3362</v>
       </c>
       <c r="D95">
-        <v>46</v>
+        <v>0.064</v>
       </c>
       <c r="E95">
-        <v>93</v>
+        <v>0.131</v>
       </c>
       <c r="F95">
-        <v>69</v>
+        <v>0.0975</v>
       </c>
       <c r="G95">
-        <v>74</v>
+        <v>0.1485</v>
       </c>
       <c r="H95">
-        <v>24</v>
+        <v>0.0364</v>
       </c>
       <c r="I95">
-        <v>36</v>
+        <v>0.0451</v>
       </c>
       <c r="J95">
-        <v>112</v>
+        <v>0.1237</v>
       </c>
       <c r="K95">
-        <v>9</v>
+        <v>0.016</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -4598,8 +4883,11 @@
       <c r="N95">
         <v>38</v>
       </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="O95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>782</v>
       </c>
@@ -4607,31 +4895,31 @@
         <v>17</v>
       </c>
       <c r="C96">
-        <v>225</v>
+        <v>0.2749</v>
       </c>
       <c r="D96">
-        <v>60</v>
+        <v>0.0767</v>
       </c>
       <c r="E96">
-        <v>113</v>
+        <v>0.124</v>
       </c>
       <c r="F96">
-        <v>46</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="G96">
-        <v>101</v>
+        <v>0.1547</v>
       </c>
       <c r="H96">
-        <v>25</v>
+        <v>0.0409</v>
       </c>
       <c r="I96">
-        <v>60</v>
+        <v>0.0639</v>
       </c>
       <c r="J96">
-        <v>108</v>
+        <v>0.1061</v>
       </c>
       <c r="K96">
-        <v>10</v>
+        <v>0.0179</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -4642,8 +4930,11 @@
       <c r="N96">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="O96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>749</v>
       </c>
@@ -4651,31 +4942,31 @@
         <v>8</v>
       </c>
       <c r="C97">
-        <v>233</v>
+        <v>0.3311</v>
       </c>
       <c r="D97">
-        <v>65</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="E97">
-        <v>109</v>
+        <v>0.1095</v>
       </c>
       <c r="F97">
-        <v>58</v>
+        <v>0.0774</v>
       </c>
       <c r="G97">
-        <v>88</v>
+        <v>0.1469</v>
       </c>
       <c r="H97">
-        <v>26</v>
+        <v>0.0454</v>
       </c>
       <c r="I97">
-        <v>49</v>
+        <v>0.0561</v>
       </c>
       <c r="J97">
-        <v>101</v>
+        <v>0.1175</v>
       </c>
       <c r="K97">
-        <v>13</v>
+        <v>0.0174</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -4686,8 +4977,11 @@
       <c r="N97">
         <v>61</v>
       </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="O97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>580</v>
       </c>
@@ -4695,31 +4989,31 @@
         <v>8</v>
       </c>
       <c r="C98">
-        <v>210</v>
+        <v>0.3552</v>
       </c>
       <c r="D98">
-        <v>46</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="E98">
-        <v>76</v>
+        <v>0.1034</v>
       </c>
       <c r="F98">
-        <v>53</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="G98">
-        <v>83</v>
+        <v>0.1759</v>
       </c>
       <c r="H98">
-        <v>17</v>
+        <v>0.0293</v>
       </c>
       <c r="I98">
-        <v>27</v>
+        <v>0.0466</v>
       </c>
       <c r="J98">
-        <v>95</v>
+        <v>0.1328</v>
       </c>
       <c r="K98">
-        <v>6</v>
+        <v>0.0121</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -4730,8 +5024,11 @@
       <c r="N98">
         <v>38</v>
       </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="O98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
         <v>1152</v>
       </c>
@@ -4739,31 +5036,31 @@
         <v>12</v>
       </c>
       <c r="C99">
-        <v>280</v>
+        <v>0.2535</v>
       </c>
       <c r="D99">
-        <v>85</v>
+        <v>0.0738</v>
       </c>
       <c r="E99">
-        <v>164</v>
+        <v>0.1267</v>
       </c>
       <c r="F99">
-        <v>29</v>
+        <v>0.0226</v>
       </c>
       <c r="G99">
-        <v>175</v>
+        <v>0.1701</v>
       </c>
       <c r="H99">
-        <v>40</v>
+        <v>0.0434</v>
       </c>
       <c r="I99">
-        <v>92</v>
+        <v>0.0755</v>
       </c>
       <c r="J99">
-        <v>163</v>
+        <v>0.1102</v>
       </c>
       <c r="K99">
-        <v>20</v>
+        <v>0.02</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -4774,8 +5071,11 @@
       <c r="N99">
         <v>25</v>
       </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>749</v>
       </c>
@@ -4783,31 +5083,31 @@
         <v>18</v>
       </c>
       <c r="C100">
-        <v>205</v>
+        <v>0.2804</v>
       </c>
       <c r="D100">
-        <v>70</v>
+        <v>0.0935</v>
       </c>
       <c r="E100">
-        <v>112</v>
+        <v>0.1202</v>
       </c>
       <c r="F100">
-        <v>35</v>
+        <v>0.0494</v>
       </c>
       <c r="G100">
-        <v>91</v>
+        <v>0.1429</v>
       </c>
       <c r="H100">
-        <v>34</v>
+        <v>0.0507</v>
       </c>
       <c r="I100">
-        <v>49</v>
+        <v>0.0614</v>
       </c>
       <c r="J100">
-        <v>83</v>
+        <v>0.1041</v>
       </c>
       <c r="K100">
-        <v>13</v>
+        <v>0.0174</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -4818,8 +5118,11 @@
       <c r="N100">
         <v>91</v>
       </c>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>552</v>
       </c>
@@ -4827,31 +5130,31 @@
         <v>14</v>
       </c>
       <c r="C101">
-        <v>155</v>
+        <v>0.2736</v>
       </c>
       <c r="D101">
-        <v>34</v>
+        <v>0.0562</v>
       </c>
       <c r="E101">
-        <v>99</v>
+        <v>0.154</v>
       </c>
       <c r="F101">
-        <v>9</v>
+        <v>0.0181</v>
       </c>
       <c r="G101">
-        <v>70</v>
+        <v>0.1649</v>
       </c>
       <c r="H101">
-        <v>17</v>
+        <v>0.0399</v>
       </c>
       <c r="I101">
-        <v>42</v>
+        <v>0.0725</v>
       </c>
       <c r="J101">
-        <v>61</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="K101">
-        <v>9</v>
+        <v>0.0109</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -4862,8 +5165,11 @@
       <c r="N101">
         <v>37</v>
       </c>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="O101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102">
         <v>1083</v>
       </c>
@@ -4871,31 +5177,31 @@
         <v>17</v>
       </c>
       <c r="C102">
-        <v>320</v>
+        <v>0.2853</v>
       </c>
       <c r="D102">
-        <v>64</v>
+        <v>0.0619</v>
       </c>
       <c r="E102">
-        <v>168</v>
+        <v>0.1302</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>0.0046</v>
       </c>
       <c r="G102">
-        <v>145</v>
+        <v>0.1791</v>
       </c>
       <c r="H102">
-        <v>39</v>
+        <v>0.0397</v>
       </c>
       <c r="I102">
-        <v>70</v>
+        <v>0.0609</v>
       </c>
       <c r="J102">
-        <v>162</v>
+        <v>0.1108</v>
       </c>
       <c r="K102">
-        <v>11</v>
+        <v>0.0102</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -4906,8 +5212,11 @@
       <c r="N102">
         <v>52</v>
       </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103">
         <v>685</v>
       </c>
@@ -4915,31 +5224,31 @@
         <v>19</v>
       </c>
       <c r="C103">
-        <v>226</v>
+        <v>0.3416</v>
       </c>
       <c r="D103">
-        <v>65</v>
+        <v>0.0861</v>
       </c>
       <c r="E103">
-        <v>94</v>
+        <v>0.1066</v>
       </c>
       <c r="F103">
-        <v>68</v>
+        <v>0.1153</v>
       </c>
       <c r="G103">
-        <v>71</v>
+        <v>0.1635</v>
       </c>
       <c r="H103">
-        <v>34</v>
+        <v>0.0569</v>
       </c>
       <c r="I103">
-        <v>42</v>
+        <v>0.0496</v>
       </c>
       <c r="J103">
-        <v>101</v>
+        <v>0.1007</v>
       </c>
       <c r="K103">
-        <v>12</v>
+        <v>0.0175</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -4950,8 +5259,11 @@
       <c r="N103">
         <v>65</v>
       </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104">
         <v>756</v>
       </c>
@@ -4959,31 +5271,31 @@
         <v>12</v>
       </c>
       <c r="C104">
-        <v>255</v>
+        <v>0.3479</v>
       </c>
       <c r="D104">
-        <v>61</v>
+        <v>0.0728</v>
       </c>
       <c r="E104">
-        <v>101</v>
+        <v>0.1005</v>
       </c>
       <c r="F104">
-        <v>105</v>
+        <v>0.1455</v>
       </c>
       <c r="G104">
-        <v>78</v>
+        <v>0.1614</v>
       </c>
       <c r="H104">
-        <v>19</v>
+        <v>0.0278</v>
       </c>
       <c r="I104">
-        <v>46</v>
+        <v>0.0529</v>
       </c>
       <c r="J104">
-        <v>119</v>
+        <v>0.1138</v>
       </c>
       <c r="K104">
-        <v>12</v>
+        <v>0.0159</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -4994,8 +5306,11 @@
       <c r="N104">
         <v>49</v>
       </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105">
         <v>1236</v>
       </c>
@@ -5003,31 +5318,31 @@
         <v>19</v>
       </c>
       <c r="C105">
-        <v>358</v>
+        <v>0.3018</v>
       </c>
       <c r="D105">
-        <v>108</v>
+        <v>0.089</v>
       </c>
       <c r="E105">
-        <v>141</v>
+        <v>0.0979</v>
       </c>
       <c r="F105">
-        <v>61</v>
+        <v>0.0437</v>
       </c>
       <c r="G105">
-        <v>177</v>
+        <v>0.1659</v>
       </c>
       <c r="H105">
-        <v>37</v>
+        <v>0.0356</v>
       </c>
       <c r="I105">
-        <v>73</v>
+        <v>0.0542</v>
       </c>
       <c r="J105">
-        <v>191</v>
+        <v>0.123</v>
       </c>
       <c r="K105">
-        <v>30</v>
+        <v>0.0267</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -5038,8 +5353,11 @@
       <c r="N105">
         <v>31</v>
       </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106">
         <v>779</v>
       </c>
@@ -5047,31 +5365,31 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>230</v>
+        <v>0.2991</v>
       </c>
       <c r="D106">
-        <v>69</v>
+        <v>0.0834</v>
       </c>
       <c r="E106">
-        <v>106</v>
+        <v>0.1168</v>
       </c>
       <c r="F106">
-        <v>29</v>
+        <v>0.0321</v>
       </c>
       <c r="G106">
-        <v>108</v>
+        <v>0.1579</v>
       </c>
       <c r="H106">
-        <v>30</v>
+        <v>0.0436</v>
       </c>
       <c r="I106">
-        <v>50</v>
+        <v>0.0591</v>
       </c>
       <c r="J106">
-        <v>121</v>
+        <v>0.1271</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>0.0013</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -5082,8 +5400,11 @@
       <c r="N106">
         <v>68</v>
       </c>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="O106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107">
         <v>934</v>
       </c>
@@ -5091,31 +5412,31 @@
         <v>15</v>
       </c>
       <c r="C107">
-        <v>285</v>
+        <v>0.3126</v>
       </c>
       <c r="D107">
-        <v>71</v>
+        <v>0.0771</v>
       </c>
       <c r="E107">
-        <v>130</v>
+        <v>0.1178</v>
       </c>
       <c r="F107">
-        <v>13</v>
+        <v>0.0118</v>
       </c>
       <c r="G107">
-        <v>138</v>
+        <v>0.1959</v>
       </c>
       <c r="H107">
-        <v>34</v>
+        <v>0.0418</v>
       </c>
       <c r="I107">
-        <v>45</v>
+        <v>0.0385</v>
       </c>
       <c r="J107">
-        <v>136</v>
+        <v>0.1049</v>
       </c>
       <c r="K107">
-        <v>18</v>
+        <v>0.0182</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -5126,8 +5447,11 @@
       <c r="N107">
         <v>61</v>
       </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="O107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108">
         <v>554</v>
       </c>
@@ -5135,31 +5459,31 @@
         <v>9</v>
       </c>
       <c r="C108">
-        <v>150</v>
+        <v>0.2924</v>
       </c>
       <c r="D108">
-        <v>52</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="E108">
-        <v>76</v>
+        <v>0.1282</v>
       </c>
       <c r="F108">
-        <v>24</v>
+        <v>0.0217</v>
       </c>
       <c r="G108">
-        <v>62</v>
+        <v>0.139</v>
       </c>
       <c r="H108">
-        <v>25</v>
+        <v>0.0505</v>
       </c>
       <c r="I108">
-        <v>39</v>
+        <v>0.065</v>
       </c>
       <c r="J108">
-        <v>86</v>
+        <v>0.1227</v>
       </c>
       <c r="K108">
-        <v>7</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -5170,8 +5494,11 @@
       <c r="N108">
         <v>37</v>
       </c>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109">
         <v>606</v>
       </c>
@@ -5179,31 +5506,31 @@
         <v>11</v>
       </c>
       <c r="C109">
-        <v>202</v>
+        <v>0.3432</v>
       </c>
       <c r="D109">
-        <v>45</v>
+        <v>0.0825</v>
       </c>
       <c r="E109">
-        <v>81</v>
+        <v>0.0941</v>
       </c>
       <c r="F109">
-        <v>21</v>
+        <v>0.0314</v>
       </c>
       <c r="G109">
-        <v>78</v>
+        <v>0.1766</v>
       </c>
       <c r="H109">
-        <v>24</v>
+        <v>0.0413</v>
       </c>
       <c r="I109">
-        <v>25</v>
+        <v>0.0314</v>
       </c>
       <c r="J109">
-        <v>106</v>
+        <v>0.1419</v>
       </c>
       <c r="K109">
-        <v>14</v>
+        <v>0.0248</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -5214,8 +5541,11 @@
       <c r="N109">
         <v>31</v>
       </c>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="O109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110">
         <v>564</v>
       </c>
@@ -5223,31 +5553,31 @@
         <v>12</v>
       </c>
       <c r="C110">
-        <v>173</v>
+        <v>0.3067</v>
       </c>
       <c r="D110">
-        <v>34</v>
+        <v>0.0621</v>
       </c>
       <c r="E110">
-        <v>76</v>
+        <v>0.1099</v>
       </c>
       <c r="F110">
-        <v>14</v>
+        <v>0.0213</v>
       </c>
       <c r="G110">
-        <v>88</v>
+        <v>0.1986</v>
       </c>
       <c r="H110">
-        <v>9</v>
+        <v>0.0213</v>
       </c>
       <c r="I110">
-        <v>39</v>
+        <v>0.055</v>
       </c>
       <c r="J110">
-        <v>86</v>
+        <v>0.1082</v>
       </c>
       <c r="K110">
-        <v>10</v>
+        <v>0.0177</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -5258,8 +5588,11 @@
       <c r="N110">
         <v>55</v>
       </c>
-    </row>
-    <row r="111" spans="1:14">
+      <c r="O110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111">
         <v>1219</v>
       </c>
@@ -5267,31 +5600,31 @@
         <v>27</v>
       </c>
       <c r="C111">
-        <v>383</v>
+        <v>0.3175</v>
       </c>
       <c r="D111">
-        <v>85</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="E111">
-        <v>168</v>
+        <v>0.1222</v>
       </c>
       <c r="F111">
-        <v>64</v>
+        <v>0.0476</v>
       </c>
       <c r="G111">
-        <v>137</v>
+        <v>0.1534</v>
       </c>
       <c r="H111">
-        <v>37</v>
+        <v>0.0304</v>
       </c>
       <c r="I111">
-        <v>66</v>
+        <v>0.0509</v>
       </c>
       <c r="J111">
-        <v>184</v>
+        <v>0.1165</v>
       </c>
       <c r="K111">
-        <v>51</v>
+        <v>0.0476</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -5302,8 +5635,11 @@
       <c r="N111">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="1:14">
+      <c r="O111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112">
         <v>437</v>
       </c>
@@ -5311,31 +5647,31 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>107</v>
+        <v>0.2494</v>
       </c>
       <c r="D112">
-        <v>36</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="E112">
-        <v>80</v>
+        <v>0.167</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>0.0275</v>
       </c>
       <c r="G112">
-        <v>53</v>
+        <v>0.1327</v>
       </c>
       <c r="H112">
-        <v>20</v>
+        <v>0.0618</v>
       </c>
       <c r="I112">
-        <v>36</v>
+        <v>0.0824</v>
       </c>
       <c r="J112">
-        <v>51</v>
+        <v>0.0892</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>0.0023</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -5346,8 +5682,11 @@
       <c r="N112">
         <v>34</v>
       </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113">
         <v>1011</v>
       </c>
@@ -5355,31 +5694,31 @@
         <v>11</v>
       </c>
       <c r="C113">
-        <v>246</v>
+        <v>0.2572</v>
       </c>
       <c r="D113">
-        <v>87</v>
+        <v>0.0762</v>
       </c>
       <c r="E113">
-        <v>168</v>
+        <v>0.1375</v>
       </c>
       <c r="F113">
-        <v>50</v>
+        <v>0.0485</v>
       </c>
       <c r="G113">
-        <v>115</v>
+        <v>0.1454</v>
       </c>
       <c r="H113">
-        <v>49</v>
+        <v>0.0524</v>
       </c>
       <c r="I113">
-        <v>63</v>
+        <v>0.0534</v>
       </c>
       <c r="J113">
-        <v>131</v>
+        <v>0.1098</v>
       </c>
       <c r="K113">
-        <v>47</v>
+        <v>0.0455</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -5390,8 +5729,11 @@
       <c r="N113">
         <v>43</v>
       </c>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="O113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114">
         <v>987</v>
       </c>
@@ -5399,31 +5741,31 @@
         <v>17</v>
       </c>
       <c r="C114">
-        <v>285</v>
+        <v>0.2958</v>
       </c>
       <c r="D114">
-        <v>82</v>
+        <v>0.0861</v>
       </c>
       <c r="E114">
-        <v>142</v>
+        <v>0.1175</v>
       </c>
       <c r="F114">
-        <v>32</v>
+        <v>0.0294</v>
       </c>
       <c r="G114">
-        <v>145</v>
+        <v>0.1824</v>
       </c>
       <c r="H114">
-        <v>45</v>
+        <v>0.0557</v>
       </c>
       <c r="I114">
-        <v>47</v>
+        <v>0.0466</v>
       </c>
       <c r="J114">
-        <v>133</v>
+        <v>0.1033</v>
       </c>
       <c r="K114">
-        <v>12</v>
+        <v>0.0132</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -5434,8 +5776,11 @@
       <c r="N114">
         <v>21</v>
       </c>
-    </row>
-    <row r="115" spans="1:14">
+      <c r="O114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115">
         <v>563</v>
       </c>
@@ -5443,31 +5788,31 @@
         <v>11</v>
       </c>
       <c r="C115">
-        <v>182</v>
+        <v>0.3126</v>
       </c>
       <c r="D115">
-        <v>67</v>
+        <v>0.1137</v>
       </c>
       <c r="E115">
-        <v>64</v>
+        <v>0.1012</v>
       </c>
       <c r="F115">
-        <v>29</v>
+        <v>0.0675</v>
       </c>
       <c r="G115">
-        <v>86</v>
+        <v>0.1794</v>
       </c>
       <c r="H115">
-        <v>32</v>
+        <v>0.0604</v>
       </c>
       <c r="I115">
-        <v>24</v>
+        <v>0.0409</v>
       </c>
       <c r="J115">
-        <v>69</v>
+        <v>0.103</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>0.0107</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -5478,8 +5823,11 @@
       <c r="N115">
         <v>26</v>
       </c>
-    </row>
-    <row r="116" spans="1:14">
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116">
         <v>788</v>
       </c>
@@ -5487,31 +5835,31 @@
         <v>28</v>
       </c>
       <c r="C116">
-        <v>187</v>
+        <v>0.2043</v>
       </c>
       <c r="D116">
-        <v>72</v>
+        <v>0.1079</v>
       </c>
       <c r="E116">
-        <v>123</v>
+        <v>0.1168</v>
       </c>
       <c r="F116">
-        <v>14</v>
+        <v>0.0051</v>
       </c>
       <c r="G116">
-        <v>102</v>
+        <v>0.1332</v>
       </c>
       <c r="H116">
-        <v>26</v>
+        <v>0.0355</v>
       </c>
       <c r="I116">
-        <v>52</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="J116">
-        <v>79</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="K116">
-        <v>57</v>
+        <v>0.0901</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -5522,8 +5870,11 @@
       <c r="N116">
         <v>37</v>
       </c>
-    </row>
-    <row r="117" spans="1:14">
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117">
         <v>652</v>
       </c>
@@ -5531,31 +5882,31 @@
         <v>9</v>
       </c>
       <c r="C117">
-        <v>195</v>
+        <v>0.3021</v>
       </c>
       <c r="D117">
-        <v>61</v>
+        <v>0.0905</v>
       </c>
       <c r="E117">
-        <v>104</v>
+        <v>0.1319</v>
       </c>
       <c r="F117">
-        <v>7</v>
+        <v>0.0092</v>
       </c>
       <c r="G117">
-        <v>78</v>
+        <v>0.1534</v>
       </c>
       <c r="H117">
-        <v>15</v>
+        <v>0.0291</v>
       </c>
       <c r="I117">
-        <v>44</v>
+        <v>0.0629</v>
       </c>
       <c r="J117">
-        <v>93</v>
+        <v>0.1181</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -5566,8 +5917,11 @@
       <c r="N117">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="1:14">
+      <c r="O117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118">
         <v>608</v>
       </c>
@@ -5575,31 +5929,31 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>182</v>
+        <v>0.3207</v>
       </c>
       <c r="D118">
-        <v>35</v>
+        <v>0.0592</v>
       </c>
       <c r="E118">
-        <v>88</v>
+        <v>0.1266</v>
       </c>
       <c r="F118">
-        <v>36</v>
+        <v>0.0493</v>
       </c>
       <c r="G118">
-        <v>98</v>
+        <v>0.1908</v>
       </c>
       <c r="H118">
-        <v>19</v>
+        <v>0.0378</v>
       </c>
       <c r="I118">
-        <v>36</v>
+        <v>0.0526</v>
       </c>
       <c r="J118">
-        <v>89</v>
+        <v>0.1135</v>
       </c>
       <c r="K118">
-        <v>13</v>
+        <v>0.0181</v>
       </c>
       <c r="L118">
         <v>1</v>
@@ -5610,8 +5964,11 @@
       <c r="N118">
         <v>51</v>
       </c>
-    </row>
-    <row r="119" spans="1:14">
+      <c r="O118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119">
         <v>759</v>
       </c>
@@ -5619,31 +5976,31 @@
         <v>21</v>
       </c>
       <c r="C119">
-        <v>202</v>
+        <v>0.2701</v>
       </c>
       <c r="D119">
-        <v>46</v>
+        <v>0.0593</v>
       </c>
       <c r="E119">
-        <v>104</v>
+        <v>0.1146</v>
       </c>
       <c r="F119">
-        <v>35</v>
+        <v>0.0408</v>
       </c>
       <c r="G119">
-        <v>100</v>
+        <v>0.1555</v>
       </c>
       <c r="H119">
-        <v>19</v>
+        <v>0.0264</v>
       </c>
       <c r="I119">
-        <v>41</v>
+        <v>0.0487</v>
       </c>
       <c r="J119">
-        <v>100</v>
+        <v>0.1173</v>
       </c>
       <c r="K119">
-        <v>70</v>
+        <v>0.0883</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -5653,6 +6010,1560 @@
       </c>
       <c r="N119">
         <v>59</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120">
+        <v>954</v>
+      </c>
+      <c r="B120">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <v>0.2642</v>
+      </c>
+      <c r="D120">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="E120">
+        <v>0.1289</v>
+      </c>
+      <c r="F120">
+        <v>0.0283</v>
+      </c>
+      <c r="G120">
+        <v>0.1331</v>
+      </c>
+      <c r="H120">
+        <v>0.0461</v>
+      </c>
+      <c r="I120">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="J120">
+        <v>0.109</v>
+      </c>
+      <c r="K120">
+        <v>0.0273</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>809</v>
+      </c>
+      <c r="N120">
+        <v>71</v>
+      </c>
+      <c r="O120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121">
+        <v>607</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>0.3278</v>
+      </c>
+      <c r="D121">
+        <v>0.0725</v>
+      </c>
+      <c r="E121">
+        <v>0.1137</v>
+      </c>
+      <c r="F121">
+        <v>0.0198</v>
+      </c>
+      <c r="G121">
+        <v>0.168</v>
+      </c>
+      <c r="H121">
+        <v>0.0346</v>
+      </c>
+      <c r="I121">
+        <v>0.0445</v>
+      </c>
+      <c r="J121">
+        <v>0.1384</v>
+      </c>
+      <c r="K121">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>377</v>
+      </c>
+      <c r="N121">
+        <v>40</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122">
+        <v>1219</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>0.2855</v>
+      </c>
+      <c r="D122">
+        <v>0.0697</v>
+      </c>
+      <c r="E122">
+        <v>0.1288</v>
+      </c>
+      <c r="F122">
+        <v>0.055</v>
+      </c>
+      <c r="G122">
+        <v>0.1682</v>
+      </c>
+      <c r="H122">
+        <v>0.0328</v>
+      </c>
+      <c r="I122">
+        <v>0.0599</v>
+      </c>
+      <c r="J122">
+        <v>0.1304</v>
+      </c>
+      <c r="K122">
+        <v>0.0246</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>976</v>
+      </c>
+      <c r="N122">
+        <v>57</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123">
+        <v>886</v>
+      </c>
+      <c r="B123">
+        <v>19</v>
+      </c>
+      <c r="C123">
+        <v>0.281</v>
+      </c>
+      <c r="D123">
+        <v>0.0824</v>
+      </c>
+      <c r="E123">
+        <v>0.1264</v>
+      </c>
+      <c r="F123">
+        <v>0.0677</v>
+      </c>
+      <c r="G123">
+        <v>0.1614</v>
+      </c>
+      <c r="H123">
+        <v>0.0361</v>
+      </c>
+      <c r="I123">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J123">
+        <v>0.1061</v>
+      </c>
+      <c r="K123">
+        <v>0.0192</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>313</v>
+      </c>
+      <c r="N123">
+        <v>30</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124">
+        <v>812</v>
+      </c>
+      <c r="B124">
+        <v>12</v>
+      </c>
+      <c r="C124">
+        <v>0.2796</v>
+      </c>
+      <c r="D124">
+        <v>0.0468</v>
+      </c>
+      <c r="E124">
+        <v>0.1268</v>
+      </c>
+      <c r="F124">
+        <v>0.0542</v>
+      </c>
+      <c r="G124">
+        <v>0.1773</v>
+      </c>
+      <c r="H124">
+        <v>0.0456</v>
+      </c>
+      <c r="I124">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="J124">
+        <v>0.1244</v>
+      </c>
+      <c r="K124">
+        <v>0.0135</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>477</v>
+      </c>
+      <c r="N124">
+        <v>34</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125">
+        <v>835</v>
+      </c>
+      <c r="B125">
+        <v>11</v>
+      </c>
+      <c r="C125">
+        <v>0.2994</v>
+      </c>
+      <c r="D125">
+        <v>0.06950000000000001</v>
+      </c>
+      <c r="E125">
+        <v>0.1138</v>
+      </c>
+      <c r="F125">
+        <v>0.0204</v>
+      </c>
+      <c r="G125">
+        <v>0.1749</v>
+      </c>
+      <c r="H125">
+        <v>0.0491</v>
+      </c>
+      <c r="I125">
+        <v>0.0503</v>
+      </c>
+      <c r="J125">
+        <v>0.1234</v>
+      </c>
+      <c r="K125">
+        <v>0.0228</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>571</v>
+      </c>
+      <c r="N125">
+        <v>48</v>
+      </c>
+      <c r="O125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126">
+        <v>778</v>
+      </c>
+      <c r="B126">
+        <v>17</v>
+      </c>
+      <c r="C126">
+        <v>0.2828</v>
+      </c>
+      <c r="D126">
+        <v>0.0463</v>
+      </c>
+      <c r="E126">
+        <v>0.1825</v>
+      </c>
+      <c r="F126">
+        <v>0.0116</v>
+      </c>
+      <c r="G126">
+        <v>0.1491</v>
+      </c>
+      <c r="H126">
+        <v>0.0411</v>
+      </c>
+      <c r="I126">
+        <v>0.0476</v>
+      </c>
+      <c r="J126">
+        <v>0.1247</v>
+      </c>
+      <c r="K126">
+        <v>0.0051</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>316</v>
+      </c>
+      <c r="N126">
+        <v>51</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127">
+        <v>443</v>
+      </c>
+      <c r="B127">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <v>0.3544</v>
+      </c>
+      <c r="D127">
+        <v>0.0813</v>
+      </c>
+      <c r="E127">
+        <v>0.1061</v>
+      </c>
+      <c r="F127">
+        <v>0.1377</v>
+      </c>
+      <c r="G127">
+        <v>0.167</v>
+      </c>
+      <c r="H127">
+        <v>0.0316</v>
+      </c>
+      <c r="I127">
+        <v>0.0361</v>
+      </c>
+      <c r="J127">
+        <v>0.1174</v>
+      </c>
+      <c r="K127">
+        <v>0.0248</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>350</v>
+      </c>
+      <c r="N127">
+        <v>39</v>
+      </c>
+      <c r="O127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128">
+        <v>618</v>
+      </c>
+      <c r="B128">
+        <v>12</v>
+      </c>
+      <c r="C128">
+        <v>0.3479</v>
+      </c>
+      <c r="D128">
+        <v>0.0922</v>
+      </c>
+      <c r="E128">
+        <v>0.089</v>
+      </c>
+      <c r="F128">
+        <v>0.0793</v>
+      </c>
+      <c r="G128">
+        <v>0.1796</v>
+      </c>
+      <c r="H128">
+        <v>0.0324</v>
+      </c>
+      <c r="I128">
+        <v>0.0275</v>
+      </c>
+      <c r="J128">
+        <v>0.1278</v>
+      </c>
+      <c r="K128">
+        <v>0.0146</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>392</v>
+      </c>
+      <c r="N128">
+        <v>34</v>
+      </c>
+      <c r="O128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129">
+        <v>654</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>0.318</v>
+      </c>
+      <c r="D129">
+        <v>0.0688</v>
+      </c>
+      <c r="E129">
+        <v>0.1239</v>
+      </c>
+      <c r="F129">
+        <v>0.08260000000000001</v>
+      </c>
+      <c r="G129">
+        <v>0.1682</v>
+      </c>
+      <c r="H129">
+        <v>0.0321</v>
+      </c>
+      <c r="I129">
+        <v>0.07190000000000001</v>
+      </c>
+      <c r="J129">
+        <v>0.1086</v>
+      </c>
+      <c r="K129">
+        <v>0.0138</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>811</v>
+      </c>
+      <c r="N129">
+        <v>19</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130">
+        <v>1048</v>
+      </c>
+      <c r="B130">
+        <v>12</v>
+      </c>
+      <c r="C130">
+        <v>0.27</v>
+      </c>
+      <c r="D130">
+        <v>0.07439999999999999</v>
+      </c>
+      <c r="E130">
+        <v>0.1374</v>
+      </c>
+      <c r="F130">
+        <v>0.0239</v>
+      </c>
+      <c r="G130">
+        <v>0.1555</v>
+      </c>
+      <c r="H130">
+        <v>0.0496</v>
+      </c>
+      <c r="I130">
+        <v>0.07539999999999999</v>
+      </c>
+      <c r="J130">
+        <v>0.1164</v>
+      </c>
+      <c r="K130">
+        <v>0.0048</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>646</v>
+      </c>
+      <c r="N130">
+        <v>20</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131">
+        <v>1011</v>
+      </c>
+      <c r="B131">
+        <v>11</v>
+      </c>
+      <c r="C131">
+        <v>0.3037</v>
+      </c>
+      <c r="D131">
+        <v>0.08309999999999999</v>
+      </c>
+      <c r="E131">
+        <v>0.1177</v>
+      </c>
+      <c r="F131">
+        <v>0.0712</v>
+      </c>
+      <c r="G131">
+        <v>0.1622</v>
+      </c>
+      <c r="H131">
+        <v>0.0485</v>
+      </c>
+      <c r="I131">
+        <v>0.0504</v>
+      </c>
+      <c r="J131">
+        <v>0.1236</v>
+      </c>
+      <c r="K131">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>739</v>
+      </c>
+      <c r="N131">
+        <v>62</v>
+      </c>
+      <c r="O131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132">
+        <v>712</v>
+      </c>
+      <c r="B132">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>0.3272</v>
+      </c>
+      <c r="D132">
+        <v>0.0829</v>
+      </c>
+      <c r="E132">
+        <v>0.1138</v>
+      </c>
+      <c r="F132">
+        <v>0.0618</v>
+      </c>
+      <c r="G132">
+        <v>0.1728</v>
+      </c>
+      <c r="H132">
+        <v>0.0407</v>
+      </c>
+      <c r="I132">
+        <v>0.0492</v>
+      </c>
+      <c r="J132">
+        <v>0.1264</v>
+      </c>
+      <c r="K132">
+        <v>0.0112</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>645</v>
+      </c>
+      <c r="N132">
+        <v>40</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133">
+        <v>917</v>
+      </c>
+      <c r="B133">
+        <v>14</v>
+      </c>
+      <c r="C133">
+        <v>0.2868</v>
+      </c>
+      <c r="D133">
+        <v>0.0883</v>
+      </c>
+      <c r="E133">
+        <v>0.1232</v>
+      </c>
+      <c r="F133">
+        <v>0.0338</v>
+      </c>
+      <c r="G133">
+        <v>0.1658</v>
+      </c>
+      <c r="H133">
+        <v>0.036</v>
+      </c>
+      <c r="I133">
+        <v>0.0502</v>
+      </c>
+      <c r="J133">
+        <v>0.1178</v>
+      </c>
+      <c r="K133">
+        <v>0.0109</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>480</v>
+      </c>
+      <c r="N133">
+        <v>40</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134">
+        <v>547</v>
+      </c>
+      <c r="B134">
+        <v>11</v>
+      </c>
+      <c r="C134">
+        <v>0.2633</v>
+      </c>
+      <c r="D134">
+        <v>0.053</v>
+      </c>
+      <c r="E134">
+        <v>0.1536</v>
+      </c>
+      <c r="F134">
+        <v>0.0183</v>
+      </c>
+      <c r="G134">
+        <v>0.1444</v>
+      </c>
+      <c r="H134">
+        <v>0.0457</v>
+      </c>
+      <c r="I134">
+        <v>0.0603</v>
+      </c>
+      <c r="J134">
+        <v>0.1152</v>
+      </c>
+      <c r="K134">
+        <v>0.0037</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>348</v>
+      </c>
+      <c r="N134">
+        <v>83</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135">
+        <v>1111</v>
+      </c>
+      <c r="B135">
+        <v>11</v>
+      </c>
+      <c r="C135">
+        <v>0.2727</v>
+      </c>
+      <c r="D135">
+        <v>0.0594</v>
+      </c>
+      <c r="E135">
+        <v>0.1305</v>
+      </c>
+      <c r="F135">
+        <v>0.0396</v>
+      </c>
+      <c r="G135">
+        <v>0.1557</v>
+      </c>
+      <c r="H135">
+        <v>0.0423</v>
+      </c>
+      <c r="I135">
+        <v>0.07290000000000001</v>
+      </c>
+      <c r="J135">
+        <v>0.1251</v>
+      </c>
+      <c r="K135">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>760</v>
+      </c>
+      <c r="N135">
+        <v>76</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136">
+        <v>788</v>
+      </c>
+      <c r="B136">
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>0.2614</v>
+      </c>
+      <c r="D136">
+        <v>0.0495</v>
+      </c>
+      <c r="E136">
+        <v>0.1447</v>
+      </c>
+      <c r="F136">
+        <v>0.047</v>
+      </c>
+      <c r="G136">
+        <v>0.151</v>
+      </c>
+      <c r="H136">
+        <v>0.0508</v>
+      </c>
+      <c r="I136">
+        <v>0.0761</v>
+      </c>
+      <c r="J136">
+        <v>0.09520000000000001</v>
+      </c>
+      <c r="K136">
+        <v>0.0317</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>404</v>
+      </c>
+      <c r="N136">
+        <v>48</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137">
+        <v>708</v>
+      </c>
+      <c r="B137">
+        <v>10</v>
+      </c>
+      <c r="C137">
+        <v>0.2641</v>
+      </c>
+      <c r="D137">
+        <v>0.0565</v>
+      </c>
+      <c r="E137">
+        <v>0.1328</v>
+      </c>
+      <c r="F137">
+        <v>0.0537</v>
+      </c>
+      <c r="G137">
+        <v>0.1723</v>
+      </c>
+      <c r="H137">
+        <v>0.0367</v>
+      </c>
+      <c r="I137">
+        <v>0.0706</v>
+      </c>
+      <c r="J137">
+        <v>0.113</v>
+      </c>
+      <c r="K137">
+        <v>0.024</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>514</v>
+      </c>
+      <c r="N137">
+        <v>20</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138">
+        <v>948</v>
+      </c>
+      <c r="B138">
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <v>0.289</v>
+      </c>
+      <c r="D138">
+        <v>0.0897</v>
+      </c>
+      <c r="E138">
+        <v>0.1192</v>
+      </c>
+      <c r="F138">
+        <v>0.0443</v>
+      </c>
+      <c r="G138">
+        <v>0.1973</v>
+      </c>
+      <c r="H138">
+        <v>0.0316</v>
+      </c>
+      <c r="I138">
+        <v>0.0496</v>
+      </c>
+      <c r="J138">
+        <v>0.1065</v>
+      </c>
+      <c r="K138">
+        <v>0.0137</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>553</v>
+      </c>
+      <c r="N138">
+        <v>29</v>
+      </c>
+      <c r="O138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139">
+        <v>892</v>
+      </c>
+      <c r="B139">
+        <v>14</v>
+      </c>
+      <c r="C139">
+        <v>0.3195</v>
+      </c>
+      <c r="D139">
+        <v>0.065</v>
+      </c>
+      <c r="E139">
+        <v>0.1155</v>
+      </c>
+      <c r="F139">
+        <v>0.0404</v>
+      </c>
+      <c r="G139">
+        <v>0.1827</v>
+      </c>
+      <c r="H139">
+        <v>0.037</v>
+      </c>
+      <c r="I139">
+        <v>0.0482</v>
+      </c>
+      <c r="J139">
+        <v>0.1087</v>
+      </c>
+      <c r="K139">
+        <v>0.0146</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>443</v>
+      </c>
+      <c r="N139">
+        <v>43</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140">
+        <v>1097</v>
+      </c>
+      <c r="B140">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>0.3045</v>
+      </c>
+      <c r="D140">
+        <v>0.0665</v>
+      </c>
+      <c r="E140">
+        <v>0.1167</v>
+      </c>
+      <c r="F140">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="G140">
+        <v>0.1705</v>
+      </c>
+      <c r="H140">
+        <v>0.0365</v>
+      </c>
+      <c r="I140">
+        <v>0.0447</v>
+      </c>
+      <c r="J140">
+        <v>0.1404</v>
+      </c>
+      <c r="K140">
+        <v>0.0328</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>519</v>
+      </c>
+      <c r="N140">
+        <v>49</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141">
+        <v>673</v>
+      </c>
+      <c r="B141">
+        <v>16</v>
+      </c>
+      <c r="C141">
+        <v>0.2927</v>
+      </c>
+      <c r="D141">
+        <v>0.09660000000000001</v>
+      </c>
+      <c r="E141">
+        <v>0.1144</v>
+      </c>
+      <c r="F141">
+        <v>0.0431</v>
+      </c>
+      <c r="G141">
+        <v>0.1991</v>
+      </c>
+      <c r="H141">
+        <v>0.0178</v>
+      </c>
+      <c r="I141">
+        <v>0.0609</v>
+      </c>
+      <c r="J141">
+        <v>0.0877</v>
+      </c>
+      <c r="K141">
+        <v>0.0178</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>287</v>
+      </c>
+      <c r="N141">
+        <v>43</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142">
+        <v>2046</v>
+      </c>
+      <c r="B142">
+        <v>22</v>
+      </c>
+      <c r="C142">
+        <v>0.3045</v>
+      </c>
+      <c r="D142">
+        <v>0.07969999999999999</v>
+      </c>
+      <c r="E142">
+        <v>0.1041</v>
+      </c>
+      <c r="F142">
+        <v>0.0577</v>
+      </c>
+      <c r="G142">
+        <v>0.1857</v>
+      </c>
+      <c r="H142">
+        <v>0.0469</v>
+      </c>
+      <c r="I142">
+        <v>0.0494</v>
+      </c>
+      <c r="J142">
+        <v>0.1158</v>
+      </c>
+      <c r="K142">
+        <v>0.0083</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>627</v>
+      </c>
+      <c r="N142">
+        <v>66</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143">
+        <v>754</v>
+      </c>
+      <c r="B143">
+        <v>12</v>
+      </c>
+      <c r="C143">
+        <v>0.313</v>
+      </c>
+      <c r="D143">
+        <v>0.065</v>
+      </c>
+      <c r="E143">
+        <v>0.1207</v>
+      </c>
+      <c r="F143">
+        <v>0.0597</v>
+      </c>
+      <c r="G143">
+        <v>0.1366</v>
+      </c>
+      <c r="H143">
+        <v>0.0424</v>
+      </c>
+      <c r="I143">
+        <v>0.0557</v>
+      </c>
+      <c r="J143">
+        <v>0.1154</v>
+      </c>
+      <c r="K143">
+        <v>0.0133</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>462</v>
+      </c>
+      <c r="N143">
+        <v>36</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144">
+        <v>1978</v>
+      </c>
+      <c r="B144">
+        <v>26</v>
+      </c>
+      <c r="C144">
+        <v>0.2518</v>
+      </c>
+      <c r="D144">
+        <v>0.0799</v>
+      </c>
+      <c r="E144">
+        <v>0.1436</v>
+      </c>
+      <c r="F144">
+        <v>0.0293</v>
+      </c>
+      <c r="G144">
+        <v>0.1704</v>
+      </c>
+      <c r="H144">
+        <v>0.0339</v>
+      </c>
+      <c r="I144">
+        <v>0.0809</v>
+      </c>
+      <c r="J144">
+        <v>0.08649999999999999</v>
+      </c>
+      <c r="K144">
+        <v>0.0071</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>490</v>
+      </c>
+      <c r="N144">
+        <v>42</v>
+      </c>
+      <c r="O144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145">
+        <v>724</v>
+      </c>
+      <c r="B145">
+        <v>31</v>
+      </c>
+      <c r="C145">
+        <v>0.3633</v>
+      </c>
+      <c r="D145">
+        <v>0.0552</v>
+      </c>
+      <c r="E145">
+        <v>0.0912</v>
+      </c>
+      <c r="F145">
+        <v>0.1685</v>
+      </c>
+      <c r="G145">
+        <v>0.174</v>
+      </c>
+      <c r="H145">
+        <v>0.0249</v>
+      </c>
+      <c r="I145">
+        <v>0.0594</v>
+      </c>
+      <c r="J145">
+        <v>0.105</v>
+      </c>
+      <c r="K145">
+        <v>0.0083</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>146</v>
+      </c>
+      <c r="N145">
+        <v>74</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146">
+        <v>883</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <v>0.3262</v>
+      </c>
+      <c r="D146">
+        <v>0.0668</v>
+      </c>
+      <c r="E146">
+        <v>0.1133</v>
+      </c>
+      <c r="F146">
+        <v>0.1234</v>
+      </c>
+      <c r="G146">
+        <v>0.1891</v>
+      </c>
+      <c r="H146">
+        <v>0.0227</v>
+      </c>
+      <c r="I146">
+        <v>0.043</v>
+      </c>
+      <c r="J146">
+        <v>0.128</v>
+      </c>
+      <c r="K146">
+        <v>0.0181</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>690</v>
+      </c>
+      <c r="N146">
+        <v>70</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147">
+        <v>965</v>
+      </c>
+      <c r="B147">
+        <v>21</v>
+      </c>
+      <c r="C147">
+        <v>0.2736</v>
+      </c>
+      <c r="D147">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="E147">
+        <v>0.113</v>
+      </c>
+      <c r="F147">
+        <v>0.0269</v>
+      </c>
+      <c r="G147">
+        <v>0.1648</v>
+      </c>
+      <c r="H147">
+        <v>0.0466</v>
+      </c>
+      <c r="I147">
+        <v>0.0508</v>
+      </c>
+      <c r="J147">
+        <v>0.1078</v>
+      </c>
+      <c r="K147">
+        <v>0.0166</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>317</v>
+      </c>
+      <c r="N147">
+        <v>36</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148">
+        <v>756</v>
+      </c>
+      <c r="B148">
+        <v>21</v>
+      </c>
+      <c r="C148">
+        <v>0.2857</v>
+      </c>
+      <c r="D148">
+        <v>0.0608</v>
+      </c>
+      <c r="E148">
+        <v>0.1336</v>
+      </c>
+      <c r="F148">
+        <v>0.0225</v>
+      </c>
+      <c r="G148">
+        <v>0.1944</v>
+      </c>
+      <c r="H148">
+        <v>0.037</v>
+      </c>
+      <c r="I148">
+        <v>0.0542</v>
+      </c>
+      <c r="J148">
+        <v>0.09660000000000001</v>
+      </c>
+      <c r="K148">
+        <v>0.0119</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>249</v>
+      </c>
+      <c r="N148">
+        <v>48</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149">
+        <v>803</v>
+      </c>
+      <c r="B149">
+        <v>17</v>
+      </c>
+      <c r="C149">
+        <v>0.3113</v>
+      </c>
+      <c r="D149">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="E149">
+        <v>0.1283</v>
+      </c>
+      <c r="F149">
+        <v>0.0349</v>
+      </c>
+      <c r="G149">
+        <v>0.142</v>
+      </c>
+      <c r="H149">
+        <v>0.0361</v>
+      </c>
+      <c r="I149">
+        <v>0.0411</v>
+      </c>
+      <c r="J149">
+        <v>0.137</v>
+      </c>
+      <c r="K149">
+        <v>0.005</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>340</v>
+      </c>
+      <c r="N149">
+        <v>46</v>
+      </c>
+      <c r="O149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150">
+        <v>1026</v>
+      </c>
+      <c r="B150">
+        <v>11</v>
+      </c>
+      <c r="C150">
+        <v>0.2953</v>
+      </c>
+      <c r="D150">
+        <v>0.0975</v>
+      </c>
+      <c r="E150">
+        <v>0.1092</v>
+      </c>
+      <c r="F150">
+        <v>0.0322</v>
+      </c>
+      <c r="G150">
+        <v>0.1472</v>
+      </c>
+      <c r="H150">
+        <v>0.0292</v>
+      </c>
+      <c r="I150">
+        <v>0.0614</v>
+      </c>
+      <c r="J150">
+        <v>0.1365</v>
+      </c>
+      <c r="K150">
+        <v>0.0107</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>722</v>
+      </c>
+      <c r="N150">
+        <v>35</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151">
+        <v>903</v>
+      </c>
+      <c r="B151">
+        <v>16</v>
+      </c>
+      <c r="C151">
+        <v>0.2802</v>
+      </c>
+      <c r="D151">
+        <v>0.0631</v>
+      </c>
+      <c r="E151">
+        <v>0.1274</v>
+      </c>
+      <c r="F151">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="G151">
+        <v>0.1451</v>
+      </c>
+      <c r="H151">
+        <v>0.0343</v>
+      </c>
+      <c r="I151">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="J151">
+        <v>0.1406</v>
+      </c>
+      <c r="K151">
+        <v>0.0266</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>367</v>
+      </c>
+      <c r="N151">
+        <v>63</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152">
+        <v>933</v>
+      </c>
+      <c r="B152">
+        <v>13</v>
+      </c>
+      <c r="C152">
+        <v>0.2969</v>
+      </c>
+      <c r="D152">
+        <v>0.0825</v>
+      </c>
+      <c r="E152">
+        <v>0.105</v>
+      </c>
+      <c r="F152">
+        <v>0.0182</v>
+      </c>
+      <c r="G152">
+        <v>0.164</v>
+      </c>
+      <c r="H152">
+        <v>0.0493</v>
+      </c>
+      <c r="I152">
+        <v>0.0589</v>
+      </c>
+      <c r="J152">
+        <v>0.1254</v>
+      </c>
+      <c r="K152">
+        <v>0.0193</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>514</v>
+      </c>
+      <c r="N152">
+        <v>17</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dataset-pln.xlsx
+++ b/dataset-pln.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O152"/>
+  <dimension ref="A1:O156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="O3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1594,7 +1594,7 @@
         <v>40</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -3145,7 +3145,7 @@
         <v>28</v>
       </c>
       <c r="O58">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3380,7 +3380,7 @@
         <v>26</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3615,7 +3615,7 @@
         <v>53</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -5401,7 +5401,7 @@
         <v>68</v>
       </c>
       <c r="O106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5636,7 +5636,7 @@
         <v>30</v>
       </c>
       <c r="O111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -5918,7 +5918,7 @@
         <v>22</v>
       </c>
       <c r="O117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -6064,34 +6064,34 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B121">
         <v>12</v>
       </c>
       <c r="C121">
-        <v>0.3278</v>
+        <v>0.3273</v>
       </c>
       <c r="D121">
-        <v>0.0725</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="E121">
-        <v>0.1137</v>
+        <v>0.1135</v>
       </c>
       <c r="F121">
-        <v>0.0198</v>
+        <v>0.0214</v>
       </c>
       <c r="G121">
-        <v>0.168</v>
+        <v>0.1694</v>
       </c>
       <c r="H121">
-        <v>0.0346</v>
+        <v>0.0345</v>
       </c>
       <c r="I121">
-        <v>0.0445</v>
+        <v>0.0444</v>
       </c>
       <c r="J121">
-        <v>0.1384</v>
+        <v>0.1382</v>
       </c>
       <c r="K121">
         <v>0.008200000000000001</v>
@@ -6294,7 +6294,7 @@
         <v>48</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -6581,34 +6581,34 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B132">
         <v>9</v>
       </c>
       <c r="C132">
-        <v>0.3272</v>
+        <v>0.3268</v>
       </c>
       <c r="D132">
-        <v>0.0829</v>
+        <v>0.0827</v>
       </c>
       <c r="E132">
-        <v>0.1138</v>
+        <v>0.1136</v>
       </c>
       <c r="F132">
-        <v>0.0618</v>
+        <v>0.0631</v>
       </c>
       <c r="G132">
-        <v>0.1728</v>
+        <v>0.1739</v>
       </c>
       <c r="H132">
         <v>0.0407</v>
       </c>
       <c r="I132">
-        <v>0.0492</v>
+        <v>0.0491</v>
       </c>
       <c r="J132">
-        <v>0.1264</v>
+        <v>0.1262</v>
       </c>
       <c r="K132">
         <v>0.0112</v>
@@ -6811,7 +6811,7 @@
         <v>48</v>
       </c>
       <c r="O136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -6999,7 +6999,7 @@
         <v>49</v>
       </c>
       <c r="O140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:15">
@@ -7521,48 +7521,236 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B152">
         <v>13</v>
       </c>
       <c r="C152">
-        <v>0.2969</v>
+        <v>0.2991</v>
       </c>
       <c r="D152">
-        <v>0.0825</v>
+        <v>0.0832</v>
       </c>
       <c r="E152">
-        <v>0.105</v>
+        <v>0.1058</v>
       </c>
       <c r="F152">
-        <v>0.0182</v>
+        <v>0.0184</v>
       </c>
       <c r="G152">
-        <v>0.164</v>
+        <v>0.1652</v>
       </c>
       <c r="H152">
-        <v>0.0493</v>
+        <v>0.0497</v>
       </c>
       <c r="I152">
-        <v>0.0589</v>
+        <v>0.0594</v>
       </c>
       <c r="J152">
-        <v>0.1254</v>
+        <v>0.1263</v>
       </c>
       <c r="K152">
-        <v>0.0193</v>
+        <v>0.0119</v>
       </c>
       <c r="L152">
         <v>0</v>
       </c>
       <c r="M152">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N152">
         <v>17</v>
       </c>
       <c r="O152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153">
+        <v>750</v>
+      </c>
+      <c r="B153">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>0.2867</v>
+      </c>
+      <c r="D153">
+        <v>0.064</v>
+      </c>
+      <c r="E153">
+        <v>0.1173</v>
+      </c>
+      <c r="F153">
+        <v>0.0973</v>
+      </c>
+      <c r="G153">
+        <v>0.1827</v>
+      </c>
+      <c r="H153">
+        <v>0.044</v>
+      </c>
+      <c r="I153">
+        <v>0.0827</v>
+      </c>
+      <c r="J153">
+        <v>0.104</v>
+      </c>
+      <c r="K153">
+        <v>0.0173</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>632</v>
+      </c>
+      <c r="N153">
+        <v>30</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154">
+        <v>667</v>
+      </c>
+      <c r="B154">
+        <v>14</v>
+      </c>
+      <c r="C154">
+        <v>0.3058</v>
+      </c>
+      <c r="D154">
+        <v>0.0765</v>
+      </c>
+      <c r="E154">
+        <v>0.0975</v>
+      </c>
+      <c r="F154">
+        <v>0.0135</v>
+      </c>
+      <c r="G154">
+        <v>0.1769</v>
+      </c>
+      <c r="H154">
+        <v>0.042</v>
+      </c>
+      <c r="I154">
+        <v>0.0555</v>
+      </c>
+      <c r="J154">
+        <v>0.1184</v>
+      </c>
+      <c r="K154">
+        <v>0.015</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>349</v>
+      </c>
+      <c r="N154">
+        <v>38</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155">
+        <v>761</v>
+      </c>
+      <c r="B155">
+        <v>15</v>
+      </c>
+      <c r="C155">
+        <v>0.3035</v>
+      </c>
+      <c r="D155">
+        <v>0.0815</v>
+      </c>
+      <c r="E155">
+        <v>0.1524</v>
+      </c>
+      <c r="F155">
+        <v>0.0118</v>
+      </c>
+      <c r="G155">
+        <v>0.1393</v>
+      </c>
+      <c r="H155">
+        <v>0.0473</v>
+      </c>
+      <c r="I155">
+        <v>0.0565</v>
+      </c>
+      <c r="J155">
+        <v>0.1288</v>
+      </c>
+      <c r="K155">
+        <v>0.0039</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>367</v>
+      </c>
+      <c r="N155">
+        <v>42</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156">
+        <v>321</v>
+      </c>
+      <c r="B156">
+        <v>8</v>
+      </c>
+      <c r="C156">
+        <v>0.3115</v>
+      </c>
+      <c r="D156">
+        <v>0.0654</v>
+      </c>
+      <c r="E156">
+        <v>0.1277</v>
+      </c>
+      <c r="F156">
+        <v>0.0156</v>
+      </c>
+      <c r="G156">
+        <v>0.1495</v>
+      </c>
+      <c r="H156">
+        <v>0.081</v>
+      </c>
+      <c r="I156">
+        <v>0.053</v>
+      </c>
+      <c r="J156">
+        <v>0.1121</v>
+      </c>
+      <c r="K156">
+        <v>0.0187</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>320</v>
+      </c>
+      <c r="N156">
+        <v>41</v>
+      </c>
+      <c r="O156">
         <v>0</v>
       </c>
     </row>
